--- a/TIPPER CALCULATIONS (APRIL 2017).xlsx
+++ b/TIPPER CALCULATIONS (APRIL 2017).xlsx
@@ -5652,8 +5652,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2608397" y="10339917"/>
-          <a:ext cx="10262259" cy="2490638"/>
+          <a:off x="2608397" y="17631833"/>
+          <a:ext cx="10262259" cy="2490639"/>
           <a:chOff x="4288866" y="20152331"/>
           <a:chExt cx="11520374" cy="2503671"/>
         </a:xfrm>
@@ -6248,8 +6248,8 @@
   </sheetPr>
   <dimension ref="A1:AF115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="65" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35:R35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="65" workbookViewId="0">
+      <selection activeCell="U17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7660,7 +7660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="16.5" hidden="1" thickTop="1" thickBot="1">
+    <row r="49" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="81"/>
       <c r="B49" s="423" t="s">
         <v>20</v>
@@ -7690,7 +7690,7 @@
       <c r="AC49" s="3"/>
       <c r="AF49" s="3"/>
     </row>
-    <row r="50" spans="1:32" ht="15.75" hidden="1" thickBot="1">
+    <row r="50" spans="1:32" ht="15.75" thickBot="1">
       <c r="A50" s="79"/>
       <c r="B50" s="362" t="s">
         <v>179</v>
@@ -7726,7 +7726,7 @@
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
     </row>
-    <row r="51" spans="1:32" hidden="1">
+    <row r="51" spans="1:32">
       <c r="A51" s="79"/>
       <c r="B51" s="428" t="s">
         <v>1</v>
@@ -7774,7 +7774,7 @@
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
     </row>
-    <row r="52" spans="1:32" ht="18" hidden="1" thickBot="1">
+    <row r="52" spans="1:32" ht="18" thickBot="1">
       <c r="A52" s="79"/>
       <c r="B52" s="428" t="s">
         <v>2</v>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="S52" s="80"/>
     </row>
-    <row r="53" spans="1:32" ht="15.75" hidden="1" thickBot="1">
+    <row r="53" spans="1:32" ht="15.75" thickBot="1">
       <c r="A53" s="79"/>
       <c r="B53" s="360" t="s">
         <v>3</v>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="S53" s="80"/>
     </row>
-    <row r="54" spans="1:32" ht="15.75" hidden="1" thickBot="1">
+    <row r="54" spans="1:32" ht="15.75" thickBot="1">
       <c r="A54" s="79"/>
       <c r="B54" s="333" t="s">
         <v>4</v>
@@ -7885,7 +7885,7 @@
       </c>
       <c r="S54" s="80"/>
     </row>
-    <row r="55" spans="1:32" ht="15.75" hidden="1" thickBot="1">
+    <row r="55" spans="1:32" ht="15.75" thickBot="1">
       <c r="A55" s="79"/>
       <c r="B55" s="426" t="s">
         <v>0</v>
@@ -7913,7 +7913,7 @@
       <c r="R55" s="84"/>
       <c r="S55" s="80"/>
     </row>
-    <row r="56" spans="1:32" ht="15.75" hidden="1" thickBot="1">
+    <row r="56" spans="1:32" ht="15.75" thickBot="1">
       <c r="A56" s="79"/>
       <c r="B56" s="84"/>
       <c r="C56" s="84"/>
@@ -7934,7 +7934,7 @@
       <c r="R56" s="84"/>
       <c r="S56" s="80"/>
     </row>
-    <row r="57" spans="1:32" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="57" spans="1:32" ht="13.5" customHeight="1" thickBot="1">
       <c r="A57" s="79"/>
       <c r="B57" s="423" t="s">
         <v>21</v>
@@ -7959,7 +7959,7 @@
       <c r="R57" s="365"/>
       <c r="S57" s="80"/>
     </row>
-    <row r="58" spans="1:32" hidden="1">
+    <row r="58" spans="1:32">
       <c r="A58" s="79"/>
       <c r="B58" s="362" t="s">
         <v>0</v>
@@ -8000,7 +8000,7 @@
       </c>
       <c r="S58" s="80"/>
     </row>
-    <row r="59" spans="1:32" ht="18" hidden="1" thickBot="1">
+    <row r="59" spans="1:32" ht="18" thickBot="1">
       <c r="A59" s="79"/>
       <c r="B59" s="428" t="s">
         <v>8</v>
@@ -8042,7 +8042,7 @@
       </c>
       <c r="S59" s="80"/>
     </row>
-    <row r="60" spans="1:32" ht="15.75" hidden="1" thickBot="1">
+    <row r="60" spans="1:32" ht="15.75" thickBot="1">
       <c r="A60" s="79"/>
       <c r="B60" s="428" t="s">
         <v>9</v>
@@ -8072,7 +8072,7 @@
       <c r="R60" s="335"/>
       <c r="S60" s="80"/>
     </row>
-    <row r="61" spans="1:32" ht="15.75" hidden="1" thickBot="1">
+    <row r="61" spans="1:32" ht="15.75" thickBot="1">
       <c r="A61" s="79"/>
       <c r="B61" s="360" t="s">
         <v>10</v>
@@ -8112,7 +8112,7 @@
       </c>
       <c r="S61" s="80"/>
     </row>
-    <row r="62" spans="1:32" ht="15.75" hidden="1" thickBot="1">
+    <row r="62" spans="1:32" ht="15.75" thickBot="1">
       <c r="A62" s="79"/>
       <c r="B62" s="387" t="s">
         <v>72</v>
@@ -8137,7 +8137,7 @@
       <c r="R62" s="335"/>
       <c r="S62" s="80"/>
     </row>
-    <row r="63" spans="1:32" ht="15.75" hidden="1" thickBot="1">
+    <row r="63" spans="1:32" ht="15.75" thickBot="1">
       <c r="A63" s="79"/>
       <c r="B63" s="384" t="s">
         <v>150</v>
@@ -8172,7 +8172,7 @@
       </c>
       <c r="S63" s="80"/>
     </row>
-    <row r="64" spans="1:32" hidden="1">
+    <row r="64" spans="1:32">
       <c r="A64" s="79"/>
       <c r="B64" s="381" t="s">
         <v>11</v>
@@ -8195,7 +8195,7 @@
       <c r="R64" s="84"/>
       <c r="S64" s="80"/>
     </row>
-    <row r="65" spans="1:22" ht="15.75" hidden="1" thickBot="1">
+    <row r="65" spans="1:22" ht="15.75" thickBot="1">
       <c r="A65" s="79"/>
       <c r="B65" s="407" t="s">
         <v>7</v>
@@ -8218,7 +8218,7 @@
       <c r="R65" s="84"/>
       <c r="S65" s="80"/>
     </row>
-    <row r="66" spans="1:22" ht="15.75" hidden="1" thickBot="1">
+    <row r="66" spans="1:22" ht="15.75" thickBot="1">
       <c r="A66" s="79"/>
       <c r="B66" s="392" t="s">
         <v>12</v>
@@ -8248,7 +8248,7 @@
       <c r="R66" s="365"/>
       <c r="S66" s="80"/>
     </row>
-    <row r="67" spans="1:22" ht="15.75" hidden="1" thickBot="1">
+    <row r="67" spans="1:22" ht="15.75" thickBot="1">
       <c r="A67" s="79"/>
       <c r="B67" s="390" t="s">
         <v>13</v>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="S67" s="80"/>
     </row>
-    <row r="68" spans="1:22" ht="15.75" hidden="1" thickBot="1">
+    <row r="68" spans="1:22" ht="15.75" thickBot="1">
       <c r="A68" s="79"/>
       <c r="B68" s="84"/>
       <c r="C68" s="84"/>
@@ -8322,7 +8322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="15.75" hidden="1" thickBot="1">
+    <row r="69" spans="1:22" ht="15.75" thickBot="1">
       <c r="A69" s="79"/>
       <c r="B69" s="363" t="s">
         <v>23</v>
@@ -8347,7 +8347,7 @@
       <c r="R69" s="335"/>
       <c r="S69" s="80"/>
     </row>
-    <row r="70" spans="1:22" ht="15.75" hidden="1" thickBot="1">
+    <row r="70" spans="1:22" ht="15.75" thickBot="1">
       <c r="A70" s="79"/>
       <c r="B70" s="378" t="s">
         <v>185</v>
@@ -8387,7 +8387,7 @@
       </c>
       <c r="S70" s="80"/>
     </row>
-    <row r="71" spans="1:22" ht="15.75" hidden="1" thickBot="1">
+    <row r="71" spans="1:22" ht="15.75" thickBot="1">
       <c r="A71" s="79"/>
       <c r="B71" s="378" t="s">
         <v>186</v>
@@ -8418,7 +8418,7 @@
       <c r="S71" s="80"/>
       <c r="U71" s="21"/>
     </row>
-    <row r="72" spans="1:22" ht="18" hidden="1" thickBot="1">
+    <row r="72" spans="1:22" ht="18" thickBot="1">
       <c r="A72" s="79"/>
       <c r="B72" s="378" t="s">
         <v>187</v>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="S72" s="80"/>
     </row>
-    <row r="73" spans="1:22" ht="15.75" hidden="1" thickBot="1">
+    <row r="73" spans="1:22" ht="15.75" thickBot="1">
       <c r="A73" s="79"/>
       <c r="B73" s="489" t="s">
         <v>17</v>
@@ -8486,7 +8486,7 @@
       <c r="R73" s="84"/>
       <c r="S73" s="80"/>
     </row>
-    <row r="74" spans="1:22" ht="16.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="74" spans="1:22" ht="16.5" customHeight="1" thickBot="1">
       <c r="A74" s="79"/>
       <c r="B74" s="333" t="s">
         <v>16</v>
@@ -8510,7 +8510,7 @@
       <c r="S74" s="80"/>
       <c r="T74" s="30"/>
     </row>
-    <row r="75" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="75" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
       <c r="A75" s="79"/>
       <c r="B75" s="60" t="s">
         <v>32</v>
@@ -8546,7 +8546,7 @@
       <c r="S75" s="80"/>
       <c r="T75" s="30"/>
     </row>
-    <row r="76" spans="1:22" ht="16.5" hidden="1" thickBot="1">
+    <row r="76" spans="1:22" ht="16.5" thickBot="1">
       <c r="A76" s="79"/>
       <c r="B76" s="84"/>
       <c r="C76" s="84"/>
@@ -8574,7 +8574,7 @@
       <c r="S76" s="80"/>
       <c r="T76" s="30"/>
     </row>
-    <row r="77" spans="1:22" ht="15.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:22" ht="15.75" thickBot="1">
       <c r="A77" s="79"/>
       <c r="B77" s="267" t="s">
         <v>50</v>
@@ -8604,7 +8604,7 @@
       <c r="R77" s="121"/>
       <c r="S77" s="80"/>
     </row>
-    <row r="78" spans="1:22" ht="15.75" hidden="1" customHeight="1">
+    <row r="78" spans="1:22" ht="15.75" customHeight="1">
       <c r="A78" s="79"/>
       <c r="B78" s="362" t="s">
         <v>185</v>
@@ -8649,7 +8649,7 @@
       <c r="U78" s="10"/>
       <c r="V78" s="259"/>
     </row>
-    <row r="79" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="79" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
       <c r="A79" s="79"/>
       <c r="B79" s="428" t="s">
         <v>186</v>
@@ -8687,7 +8687,7 @@
       <c r="U79" s="10"/>
       <c r="V79" s="259"/>
     </row>
-    <row r="80" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="80" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
       <c r="A80" s="79"/>
       <c r="B80" s="360" t="s">
         <v>187</v>
@@ -8731,7 +8731,7 @@
       <c r="U80" s="10"/>
       <c r="V80" s="259"/>
     </row>
-    <row r="81" spans="1:19" ht="15.75" hidden="1" thickBot="1">
+    <row r="81" spans="1:19" ht="15.75" thickBot="1">
       <c r="A81" s="79"/>
       <c r="B81" s="271" t="s">
         <v>33</v>
@@ -8761,7 +8761,7 @@
       <c r="R81" s="121"/>
       <c r="S81" s="80"/>
     </row>
-    <row r="82" spans="1:19" ht="15.75" hidden="1" customHeight="1">
+    <row r="82" spans="1:19" ht="15.75" customHeight="1">
       <c r="A82" s="79"/>
       <c r="B82" s="494" t="s">
         <v>195</v>
@@ -8798,7 +8798,7 @@
       <c r="R82" s="538"/>
       <c r="S82" s="80"/>
     </row>
-    <row r="83" spans="1:19" ht="15.75" hidden="1" thickBot="1">
+    <row r="83" spans="1:19" ht="15.75" thickBot="1">
       <c r="A83" s="79"/>
       <c r="B83" s="496"/>
       <c r="C83" s="497"/>
@@ -8833,7 +8833,7 @@
       </c>
       <c r="S83" s="80"/>
     </row>
-    <row r="84" spans="1:19" ht="15.75" hidden="1" thickBot="1">
+    <row r="84" spans="1:19" ht="15.75" thickBot="1">
       <c r="A84" s="79"/>
       <c r="B84" s="84"/>
       <c r="C84" s="84"/>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="S84" s="80"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="85" spans="1:19" ht="15.75" thickBot="1">
       <c r="A85" s="86"/>
       <c r="B85" s="87"/>
       <c r="C85" s="87"/>
@@ -9502,7 +9502,7 @@
   </sheetPr>
   <dimension ref="A1:AO93"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AA39" sqref="AA39"/>
     </sheetView>
   </sheetViews>

--- a/TIPPER CALCULATIONS (APRIL 2017).xlsx
+++ b/TIPPER CALCULATIONS (APRIL 2017).xlsx
@@ -3491,7 +3491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="650">
+  <cellXfs count="644">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -4294,25 +4294,7 @@
     <xf numFmtId="167" fontId="36" fillId="14" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="28" fillId="6" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="6" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="6" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4437,6 +4419,576 @@
     <xf numFmtId="2" fontId="17" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="5" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="8" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="8" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="8" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="8" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="8" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="8" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="8" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="5" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="5" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="8" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="8" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="8" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="8" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="4" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="4" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="8" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="8" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="8" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="11" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="11" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="11" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="4" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="6" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="6" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="9" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="9" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="9" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="9" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="9" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="9" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="9" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="9" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="9" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="9" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="9" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="9" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="4" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="2" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="2" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="2" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="10" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="10" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="10" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="17" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="17" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="17" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="17" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="17" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="17" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="6" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="6" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="6" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="16" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="16" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="16" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="14" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="14" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="14" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="7" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="7" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="7" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="13" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="13" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="13" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="13" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="4" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="4" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="4" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="4" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="4" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="4" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="4" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="4" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="4" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="4" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="26" fillId="9" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4491,15 +5043,6 @@
     <xf numFmtId="4" fontId="27" fillId="9" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4510,12 +5053,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4545,51 +5082,12 @@
     <xf numFmtId="4" fontId="8" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="4" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="5" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="6" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="6" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="18" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4600,9 +5098,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4626,518 +5121,176 @@
     <xf numFmtId="4" fontId="37" fillId="22" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="17" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="17" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="17" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="17" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="17" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="17" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="6" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="6" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="6" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="16" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="16" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="16" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="14" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="14" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="14" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="7" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="7" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="7" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="13" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="13" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="13" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="13" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="2" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="2" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="2" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="5" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="5" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="8" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="8" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="8" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="8" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="2" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="2" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="2" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="10" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="10" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="10" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="9" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="9" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="9" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="9" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="9" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="9" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="9" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="9" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="9" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="9" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="9" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="9" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="2" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="8" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="8" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="8" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="8" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="8" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="8" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="8" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="4" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="8" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="8" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="8" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="11" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="11" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="11" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="162" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="164" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="161" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="164" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="161" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="164" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="162" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="145" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="144" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="146" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="148" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5175,213 +5328,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="142" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="145" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="144" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="146" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="148" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="161" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="162" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="164" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="161" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="164" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="162" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="164" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5412,6 +5358,45 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="22" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5421,25 +5406,22 @@
     <xf numFmtId="0" fontId="37" fillId="22" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6248,8 +6230,8 @@
   </sheetPr>
   <dimension ref="A1:AF115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="65" workbookViewId="0">
-      <selection activeCell="U17" sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="65" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6265,7 +6247,7 @@
     <col min="17" max="17" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" style="2" customWidth="1"/>
     <col min="19" max="19" width="1.5703125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="21" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="21" customWidth="1"/>
     <col min="21" max="21" width="17.85546875" style="2" customWidth="1"/>
     <col min="22" max="22" width="10.5703125" style="256" customWidth="1"/>
     <col min="23" max="23" width="12.140625" style="260" customWidth="1"/>
@@ -6275,51 +6257,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" customHeight="1" thickTop="1">
-      <c r="A1" s="416" t="s">
+      <c r="A1" s="441" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="417"/>
-      <c r="C1" s="417"/>
-      <c r="D1" s="417"/>
-      <c r="E1" s="417"/>
-      <c r="F1" s="417"/>
-      <c r="G1" s="417"/>
-      <c r="H1" s="417"/>
-      <c r="I1" s="417"/>
-      <c r="J1" s="417"/>
-      <c r="K1" s="417"/>
-      <c r="L1" s="417"/>
-      <c r="M1" s="417"/>
-      <c r="N1" s="417"/>
-      <c r="O1" s="417"/>
-      <c r="P1" s="417"/>
-      <c r="Q1" s="417"/>
-      <c r="R1" s="417"/>
-      <c r="S1" s="418"/>
-      <c r="T1" s="276"/>
+      <c r="B1" s="442"/>
+      <c r="C1" s="442"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
+      <c r="I1" s="442"/>
+      <c r="J1" s="442"/>
+      <c r="K1" s="442"/>
+      <c r="L1" s="442"/>
+      <c r="M1" s="442"/>
+      <c r="N1" s="442"/>
+      <c r="O1" s="442"/>
+      <c r="P1" s="442"/>
+      <c r="Q1" s="442"/>
+      <c r="R1" s="442"/>
+      <c r="S1" s="443"/>
+      <c r="T1" s="270"/>
       <c r="U1" s="1"/>
       <c r="V1" s="255"/>
     </row>
     <row r="2" spans="1:25" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A2" s="419"/>
-      <c r="B2" s="420"/>
-      <c r="C2" s="420"/>
-      <c r="D2" s="420"/>
-      <c r="E2" s="420"/>
-      <c r="F2" s="420"/>
-      <c r="G2" s="420"/>
-      <c r="H2" s="420"/>
-      <c r="I2" s="420"/>
-      <c r="J2" s="420"/>
-      <c r="K2" s="420"/>
-      <c r="L2" s="420"/>
-      <c r="M2" s="420"/>
-      <c r="N2" s="420"/>
-      <c r="O2" s="420"/>
-      <c r="P2" s="420"/>
-      <c r="Q2" s="420"/>
-      <c r="R2" s="420"/>
-      <c r="S2" s="421"/>
+      <c r="A2" s="444"/>
+      <c r="B2" s="445"/>
+      <c r="C2" s="445"/>
+      <c r="D2" s="445"/>
+      <c r="E2" s="445"/>
+      <c r="F2" s="445"/>
+      <c r="G2" s="445"/>
+      <c r="H2" s="445"/>
+      <c r="I2" s="445"/>
+      <c r="J2" s="445"/>
+      <c r="K2" s="445"/>
+      <c r="L2" s="445"/>
+      <c r="M2" s="445"/>
+      <c r="N2" s="445"/>
+      <c r="O2" s="445"/>
+      <c r="P2" s="445"/>
+      <c r="Q2" s="445"/>
+      <c r="R2" s="445"/>
+      <c r="S2" s="446"/>
       <c r="T2" s="9"/>
       <c r="U2" s="3"/>
     </row>
@@ -6336,17 +6318,17 @@
       <c r="J3" s="84"/>
       <c r="K3" s="84"/>
       <c r="L3" s="84"/>
-      <c r="M3" s="324" t="s">
+      <c r="M3" s="508" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="325"/>
-      <c r="O3" s="326"/>
-      <c r="P3" s="315" t="str">
+      <c r="N3" s="509"/>
+      <c r="O3" s="510"/>
+      <c r="P3" s="499" t="str">
         <f>IF($Q$12='Data Sheet - Cyls &amp; Packs'!E32,('Data Sheet - Cyls &amp; Packs'!Q32),IF($Q$12='Data Sheet - Cyls &amp; Packs'!E34,('Data Sheet - Cyls &amp; Packs'!Q34),IF($Q$12='Data Sheet - Cyls &amp; Packs'!E35,('Data Sheet - Cyls &amp; Packs'!Q35),IF($Q$12='Data Sheet - Cyls &amp; Packs'!E36,('Data Sheet - Cyls &amp; Packs'!Q36)))))</f>
         <v>TK*XLONG</v>
       </c>
-      <c r="Q3" s="316"/>
-      <c r="R3" s="317"/>
+      <c r="Q3" s="500"/>
+      <c r="R3" s="501"/>
       <c r="S3" s="80"/>
       <c r="T3" s="9"/>
       <c r="U3" s="3"/>
@@ -6364,12 +6346,12 @@
       <c r="J4" s="84"/>
       <c r="K4" s="84"/>
       <c r="L4" s="84"/>
-      <c r="M4" s="327"/>
-      <c r="N4" s="328"/>
-      <c r="O4" s="329"/>
-      <c r="P4" s="318"/>
-      <c r="Q4" s="319"/>
-      <c r="R4" s="320"/>
+      <c r="M4" s="511"/>
+      <c r="N4" s="512"/>
+      <c r="O4" s="513"/>
+      <c r="P4" s="502"/>
+      <c r="Q4" s="503"/>
+      <c r="R4" s="504"/>
       <c r="S4" s="80"/>
       <c r="T4" s="9"/>
       <c r="U4" s="3"/>
@@ -6388,12 +6370,12 @@
       <c r="J5" s="84"/>
       <c r="K5" s="84"/>
       <c r="L5" s="84"/>
-      <c r="M5" s="330"/>
-      <c r="N5" s="331"/>
-      <c r="O5" s="332"/>
-      <c r="P5" s="321"/>
-      <c r="Q5" s="322"/>
-      <c r="R5" s="323"/>
+      <c r="M5" s="514"/>
+      <c r="N5" s="515"/>
+      <c r="O5" s="516"/>
+      <c r="P5" s="505"/>
+      <c r="Q5" s="506"/>
+      <c r="R5" s="507"/>
       <c r="S5" s="80"/>
       <c r="T5" s="9"/>
       <c r="U5" s="3"/>
@@ -6434,14 +6416,14 @@
       <c r="J7" s="84"/>
       <c r="K7" s="84"/>
       <c r="L7" s="84"/>
-      <c r="M7" s="375" t="s">
+      <c r="M7" s="540" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="376"/>
-      <c r="O7" s="376"/>
-      <c r="P7" s="376"/>
-      <c r="Q7" s="376"/>
-      <c r="R7" s="377"/>
+      <c r="N7" s="541"/>
+      <c r="O7" s="541"/>
+      <c r="P7" s="541"/>
+      <c r="Q7" s="541"/>
+      <c r="R7" s="542"/>
       <c r="S7" s="80"/>
       <c r="T7" s="9"/>
       <c r="U7" s="3"/>
@@ -6459,12 +6441,12 @@
       <c r="J8" s="84"/>
       <c r="K8" s="84"/>
       <c r="L8" s="84"/>
-      <c r="M8" s="372" t="s">
+      <c r="M8" s="537" t="s">
         <v>212</v>
       </c>
-      <c r="N8" s="373"/>
-      <c r="O8" s="373"/>
-      <c r="P8" s="374"/>
+      <c r="N8" s="538"/>
+      <c r="O8" s="538"/>
+      <c r="P8" s="539"/>
       <c r="Q8" s="251">
         <v>800</v>
       </c>
@@ -6488,12 +6470,12 @@
       <c r="J9" s="84"/>
       <c r="K9" s="84"/>
       <c r="L9" s="84"/>
-      <c r="M9" s="378" t="s">
+      <c r="M9" s="407" t="s">
         <v>213</v>
       </c>
-      <c r="N9" s="379"/>
-      <c r="O9" s="379"/>
-      <c r="P9" s="380"/>
+      <c r="N9" s="408"/>
+      <c r="O9" s="408"/>
+      <c r="P9" s="409"/>
       <c r="Q9" s="252">
         <v>1000</v>
       </c>
@@ -6517,11 +6499,11 @@
       <c r="J10" s="84"/>
       <c r="K10" s="84"/>
       <c r="L10" s="84"/>
-      <c r="M10" s="405" t="s">
+      <c r="M10" s="423" t="s">
         <v>177</v>
       </c>
-      <c r="N10" s="460"/>
-      <c r="O10" s="406"/>
+      <c r="N10" s="424"/>
+      <c r="O10" s="425"/>
       <c r="P10" s="250" t="s">
         <v>8</v>
       </c>
@@ -6550,11 +6532,11 @@
       <c r="J11" s="84"/>
       <c r="K11" s="84"/>
       <c r="L11" s="84"/>
-      <c r="M11" s="405" t="s">
+      <c r="M11" s="423" t="s">
         <v>182</v>
       </c>
-      <c r="N11" s="460"/>
-      <c r="O11" s="406"/>
+      <c r="N11" s="424"/>
+      <c r="O11" s="425"/>
       <c r="P11" s="250" t="s">
         <v>9</v>
       </c>
@@ -6569,7 +6551,7 @@
         <f>(T12/T13)</f>
         <v>0.65277777777777779</v>
       </c>
-      <c r="U11" s="275"/>
+      <c r="U11" s="269"/>
     </row>
     <row r="12" spans="1:25" ht="15.75">
       <c r="A12" s="79"/>
@@ -6584,11 +6566,11 @@
       <c r="J12" s="84"/>
       <c r="K12" s="84"/>
       <c r="L12" s="84"/>
-      <c r="M12" s="428" t="s">
+      <c r="M12" s="394" t="s">
         <v>197</v>
       </c>
-      <c r="N12" s="429"/>
-      <c r="O12" s="429"/>
+      <c r="N12" s="395"/>
+      <c r="O12" s="395"/>
       <c r="P12" s="250" t="s">
         <v>10</v>
       </c>
@@ -6599,11 +6581,11 @@
         <v>6</v>
       </c>
       <c r="S12" s="80"/>
-      <c r="T12" s="277">
+      <c r="T12" s="271">
         <f>(Q11*Q11)+(Q11*Q11)-(Q12*Q12)</f>
         <v>2937500</v>
       </c>
-      <c r="U12" s="275"/>
+      <c r="U12" s="269"/>
     </row>
     <row r="13" spans="1:25" ht="15.75">
       <c r="A13" s="79"/>
@@ -6618,11 +6600,11 @@
       <c r="J13" s="84"/>
       <c r="K13" s="84"/>
       <c r="L13" s="84"/>
-      <c r="M13" s="428" t="s">
+      <c r="M13" s="394" t="s">
         <v>176</v>
       </c>
-      <c r="N13" s="429"/>
-      <c r="O13" s="429"/>
+      <c r="N13" s="395"/>
+      <c r="O13" s="395"/>
       <c r="P13" s="250" t="s">
         <v>51</v>
       </c>
@@ -6633,11 +6615,11 @@
         <v>6</v>
       </c>
       <c r="S13" s="80"/>
-      <c r="T13" s="277">
+      <c r="T13" s="271">
         <f>(2*Q11*Q11)</f>
         <v>4500000</v>
       </c>
-      <c r="U13" s="275"/>
+      <c r="U13" s="269"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" thickBot="1">
       <c r="A14" s="79"/>
@@ -6652,11 +6634,11 @@
       <c r="J14" s="84"/>
       <c r="K14" s="84"/>
       <c r="L14" s="84"/>
-      <c r="M14" s="469" t="s">
+      <c r="M14" s="436" t="s">
         <v>214</v>
       </c>
-      <c r="N14" s="470"/>
-      <c r="O14" s="471"/>
+      <c r="N14" s="437"/>
+      <c r="O14" s="438"/>
       <c r="P14" s="264" t="s">
         <v>215</v>
       </c>
@@ -6669,7 +6651,7 @@
       </c>
       <c r="S14" s="80"/>
       <c r="T14" s="9"/>
-      <c r="U14" s="275"/>
+      <c r="U14" s="269"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" thickBot="1">
       <c r="A15" s="79"/>
@@ -6706,14 +6688,14 @@
       <c r="J16" s="84"/>
       <c r="K16" s="84"/>
       <c r="L16" s="84"/>
-      <c r="M16" s="430" t="s">
+      <c r="M16" s="453" t="s">
         <v>146</v>
       </c>
-      <c r="N16" s="431"/>
-      <c r="O16" s="431"/>
-      <c r="P16" s="431"/>
-      <c r="Q16" s="431"/>
-      <c r="R16" s="432"/>
+      <c r="N16" s="454"/>
+      <c r="O16" s="454"/>
+      <c r="P16" s="454"/>
+      <c r="Q16" s="454"/>
+      <c r="R16" s="455"/>
       <c r="S16" s="80"/>
       <c r="T16" s="9"/>
     </row>
@@ -6730,12 +6712,12 @@
       <c r="J17" s="84"/>
       <c r="K17" s="84"/>
       <c r="L17" s="84"/>
-      <c r="M17" s="362" t="s">
+      <c r="M17" s="439" t="s">
         <v>198</v>
       </c>
-      <c r="N17" s="361"/>
-      <c r="O17" s="361"/>
-      <c r="P17" s="361"/>
+      <c r="N17" s="440"/>
+      <c r="O17" s="440"/>
+      <c r="P17" s="440"/>
       <c r="Q17" s="132">
         <v>160</v>
       </c>
@@ -6758,12 +6740,12 @@
       <c r="J18" s="84"/>
       <c r="K18" s="84"/>
       <c r="L18" s="84"/>
-      <c r="M18" s="428" t="s">
+      <c r="M18" s="394" t="s">
         <v>101</v>
       </c>
-      <c r="N18" s="429"/>
-      <c r="O18" s="429"/>
-      <c r="P18" s="429"/>
+      <c r="N18" s="395"/>
+      <c r="O18" s="395"/>
+      <c r="P18" s="395"/>
       <c r="Q18" s="133">
         <v>5.5</v>
       </c>
@@ -6786,12 +6768,12 @@
       <c r="J19" s="84"/>
       <c r="K19" s="84"/>
       <c r="L19" s="84"/>
-      <c r="M19" s="449" t="s">
+      <c r="M19" s="430" t="s">
         <v>102</v>
       </c>
-      <c r="N19" s="450"/>
-      <c r="O19" s="450"/>
-      <c r="P19" s="450"/>
+      <c r="N19" s="431"/>
+      <c r="O19" s="431"/>
+      <c r="P19" s="431"/>
       <c r="Q19" s="134">
         <v>9</v>
       </c>
@@ -6840,14 +6822,14 @@
       <c r="J21" s="84"/>
       <c r="K21" s="84"/>
       <c r="L21" s="84"/>
-      <c r="M21" s="436" t="s">
+      <c r="M21" s="459" t="s">
         <v>178</v>
       </c>
-      <c r="N21" s="437"/>
-      <c r="O21" s="437"/>
-      <c r="P21" s="437"/>
-      <c r="Q21" s="437"/>
-      <c r="R21" s="438"/>
+      <c r="N21" s="460"/>
+      <c r="O21" s="460"/>
+      <c r="P21" s="460"/>
+      <c r="Q21" s="460"/>
+      <c r="R21" s="461"/>
       <c r="S21" s="80"/>
       <c r="T21" s="9"/>
       <c r="U21" s="3"/>
@@ -6866,12 +6848,12 @@
       <c r="J22" s="84"/>
       <c r="K22" s="84"/>
       <c r="L22" s="84"/>
-      <c r="M22" s="362" t="s">
+      <c r="M22" s="439" t="s">
         <v>69</v>
       </c>
-      <c r="N22" s="361"/>
-      <c r="O22" s="361"/>
-      <c r="P22" s="361"/>
+      <c r="N22" s="440"/>
+      <c r="O22" s="440"/>
+      <c r="P22" s="440"/>
       <c r="Q22" s="135">
         <f>IF($E$30='Data Sheet - Cyls &amp; Packs'!C32,('Data Sheet - Cyls &amp; Packs'!G32),IF($E$30='Data Sheet - Cyls &amp; Packs'!C34,('Data Sheet - Cyls &amp; Packs'!G34),IF($E$30='Data Sheet - Cyls &amp; Packs'!C35,('Data Sheet - Cyls &amp; Packs'!G35),IF($E$30='Data Sheet - Cyls &amp; Packs'!C36,('Data Sheet - Cyls &amp; Packs'!G36)))))</f>
         <v>7.7</v>
@@ -6897,12 +6879,12 @@
       <c r="J23" s="84"/>
       <c r="K23" s="84"/>
       <c r="L23" s="84"/>
-      <c r="M23" s="428" t="s">
+      <c r="M23" s="394" t="s">
         <v>145</v>
       </c>
-      <c r="N23" s="429"/>
-      <c r="O23" s="429"/>
-      <c r="P23" s="429"/>
+      <c r="N23" s="395"/>
+      <c r="O23" s="395"/>
+      <c r="P23" s="395"/>
       <c r="Q23" s="136">
         <f>IF($E$30='Data Sheet - Cyls &amp; Packs'!C32,('Data Sheet - Cyls &amp; Packs'!R32),IF($E$30='Data Sheet - Cyls &amp; Packs'!C34,('Data Sheet - Cyls &amp; Packs'!R34),IF($E$30='Data Sheet - Cyls &amp; Packs'!C35,('Data Sheet - Cyls &amp; Packs'!R35),IF($E$30='Data Sheet - Cyls &amp; Packs'!C36,('Data Sheet - Cyls &amp; Packs'!R36)))))</f>
         <v>120</v>
@@ -6928,12 +6910,12 @@
       <c r="J24" s="84"/>
       <c r="K24" s="84"/>
       <c r="L24" s="84"/>
-      <c r="M24" s="449" t="s">
+      <c r="M24" s="430" t="s">
         <v>173</v>
       </c>
-      <c r="N24" s="450"/>
-      <c r="O24" s="450"/>
-      <c r="P24" s="450"/>
+      <c r="N24" s="431"/>
+      <c r="O24" s="431"/>
+      <c r="P24" s="431"/>
       <c r="Q24" s="137">
         <f>IF($E$30='Data Sheet - Cyls &amp; Packs'!C32,('Data Sheet - Cyls &amp; Packs'!U32),IF($E$30='Data Sheet - Cyls &amp; Packs'!C34,('Data Sheet - Cyls &amp; Packs'!W34),IF($E$30='Data Sheet - Cyls &amp; Packs'!C35,('Data Sheet - Cyls &amp; Packs'!W35),IF($E$30='Data Sheet - Cyls &amp; Packs'!C36,('Data Sheet - Cyls &amp; Packs'!W36)))))</f>
         <v>45</v>
@@ -6983,14 +6965,14 @@
       <c r="J26" s="84"/>
       <c r="K26" s="84"/>
       <c r="L26" s="84"/>
-      <c r="M26" s="433" t="s">
+      <c r="M26" s="456" t="s">
         <v>68</v>
       </c>
-      <c r="N26" s="434"/>
-      <c r="O26" s="434"/>
-      <c r="P26" s="434"/>
-      <c r="Q26" s="434"/>
-      <c r="R26" s="435"/>
+      <c r="N26" s="457"/>
+      <c r="O26" s="457"/>
+      <c r="P26" s="457"/>
+      <c r="Q26" s="457"/>
+      <c r="R26" s="458"/>
       <c r="S26" s="80"/>
       <c r="T26" s="9"/>
       <c r="U26" s="3"/>
@@ -7033,18 +7015,18 @@
       <c r="J28" s="84"/>
       <c r="K28" s="84"/>
       <c r="L28" s="84"/>
-      <c r="M28" s="461" t="s">
+      <c r="M28" s="426" t="s">
         <v>181</v>
       </c>
-      <c r="N28" s="462"/>
-      <c r="O28" s="465" t="s">
+      <c r="N28" s="427"/>
+      <c r="O28" s="432" t="s">
         <v>183</v>
       </c>
-      <c r="P28" s="466"/>
-      <c r="Q28" s="439" t="s">
+      <c r="P28" s="433"/>
+      <c r="Q28" s="462" t="s">
         <v>184</v>
       </c>
-      <c r="R28" s="440"/>
+      <c r="R28" s="463"/>
       <c r="S28" s="80"/>
       <c r="T28" s="9"/>
       <c r="U28" s="3"/>
@@ -7063,12 +7045,12 @@
       <c r="J29" s="84"/>
       <c r="K29" s="84"/>
       <c r="L29" s="84"/>
-      <c r="M29" s="463"/>
-      <c r="N29" s="464"/>
-      <c r="O29" s="467"/>
-      <c r="P29" s="468"/>
-      <c r="Q29" s="441"/>
-      <c r="R29" s="442"/>
+      <c r="M29" s="428"/>
+      <c r="N29" s="429"/>
+      <c r="O29" s="434"/>
+      <c r="P29" s="435"/>
+      <c r="Q29" s="464"/>
+      <c r="R29" s="465"/>
       <c r="S29" s="88"/>
       <c r="T29" s="9"/>
       <c r="V29" s="257"/>
@@ -7077,17 +7059,17 @@
     </row>
     <row r="30" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A30" s="79"/>
-      <c r="B30" s="472" t="s">
+      <c r="B30" s="383" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="473"/>
-      <c r="D30" s="474"/>
-      <c r="E30" s="481" t="str">
+      <c r="C30" s="384"/>
+      <c r="D30" s="385"/>
+      <c r="E30" s="396" t="str">
         <f>IF(P3='Data Sheet - Cyls &amp; Packs'!Q32,('Data Sheet - Cyls &amp; Packs'!C32),IF(P3='Data Sheet - Cyls &amp; Packs'!Q34,('Data Sheet - Cyls &amp; Packs'!C34),IF(P3='Data Sheet - Cyls &amp; Packs'!Q34,('Data Sheet - Cyls &amp; Packs'!C34),IF(P3='Data Sheet - Cyls &amp; Packs'!Q35,('Data Sheet - Cyls &amp; Packs'!C35),IF(P3='Data Sheet - Cyls &amp; Packs'!Q36,('Data Sheet - Cyls &amp; Packs'!C36))))))</f>
         <v>6TG-E120*1250QZ</v>
       </c>
-      <c r="F30" s="482"/>
-      <c r="G30" s="483"/>
+      <c r="F30" s="397"/>
+      <c r="G30" s="398"/>
       <c r="H30" s="84"/>
       <c r="I30" s="84"/>
       <c r="J30" s="84"/>
@@ -7107,18 +7089,18 @@
     </row>
     <row r="31" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A31" s="79"/>
-      <c r="B31" s="475"/>
-      <c r="C31" s="476"/>
-      <c r="D31" s="477"/>
-      <c r="E31" s="484"/>
-      <c r="F31" s="485"/>
-      <c r="G31" s="486"/>
-      <c r="H31" s="338" t="s">
+      <c r="B31" s="386"/>
+      <c r="C31" s="387"/>
+      <c r="D31" s="388"/>
+      <c r="E31" s="399"/>
+      <c r="F31" s="400"/>
+      <c r="G31" s="401"/>
+      <c r="H31" s="519" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="339"/>
-      <c r="J31" s="339"/>
-      <c r="K31" s="340"/>
+      <c r="I31" s="520"/>
+      <c r="J31" s="520"/>
+      <c r="K31" s="314"/>
       <c r="L31" s="127">
         <f>(E66/1000)/10</f>
         <v>1.4126400000000001</v>
@@ -7126,11 +7108,11 @@
       <c r="M31" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="N31" s="341" t="s">
+      <c r="N31" s="313" t="s">
         <v>25</v>
       </c>
-      <c r="O31" s="339"/>
-      <c r="P31" s="340"/>
+      <c r="O31" s="520"/>
+      <c r="P31" s="314"/>
       <c r="Q31" s="128">
         <f>E75</f>
         <v>26.42613936073209</v>
@@ -7146,12 +7128,12 @@
     </row>
     <row r="32" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A32" s="79"/>
-      <c r="B32" s="478" t="s">
+      <c r="B32" s="389" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="479"/>
-      <c r="D32" s="479"/>
-      <c r="E32" s="480"/>
+      <c r="C32" s="390"/>
+      <c r="D32" s="390"/>
+      <c r="E32" s="391"/>
       <c r="F32" s="74">
         <f>(H83/10)</f>
         <v>18.095573687039998</v>
@@ -7159,12 +7141,12 @@
       <c r="G32" s="138" t="s">
         <v>199</v>
       </c>
-      <c r="H32" s="336" t="s">
+      <c r="H32" s="517" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="336"/>
-      <c r="J32" s="336"/>
-      <c r="K32" s="337"/>
+      <c r="I32" s="517"/>
+      <c r="J32" s="517"/>
+      <c r="K32" s="518"/>
       <c r="L32" s="72">
         <f>E82</f>
         <v>20</v>
@@ -7172,11 +7154,11 @@
       <c r="M32" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="N32" s="342" t="s">
+      <c r="N32" s="521" t="s">
         <v>180</v>
       </c>
-      <c r="O32" s="343"/>
-      <c r="P32" s="344"/>
+      <c r="O32" s="522"/>
+      <c r="P32" s="523"/>
       <c r="Q32" s="74">
         <f>Q17</f>
         <v>160</v>
@@ -7193,14 +7175,14 @@
     </row>
     <row r="33" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="86"/>
-      <c r="B33" s="422"/>
-      <c r="C33" s="422"/>
-      <c r="D33" s="422"/>
-      <c r="E33" s="422"/>
-      <c r="F33" s="422"/>
-      <c r="G33" s="422"/>
-      <c r="H33" s="422"/>
-      <c r="I33" s="422"/>
+      <c r="B33" s="447"/>
+      <c r="C33" s="447"/>
+      <c r="D33" s="447"/>
+      <c r="E33" s="447"/>
+      <c r="F33" s="447"/>
+      <c r="G33" s="447"/>
+      <c r="H33" s="447"/>
+      <c r="I33" s="447"/>
       <c r="J33" s="87"/>
       <c r="K33" s="87"/>
       <c r="L33" s="87"/>
@@ -7242,87 +7224,87 @@
     </row>
     <row r="35" spans="1:29" ht="15.75" thickBot="1">
       <c r="A35" s="79"/>
-      <c r="B35" s="354" t="s">
+      <c r="B35" s="315" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="355"/>
-      <c r="D35" s="355"/>
-      <c r="E35" s="355"/>
-      <c r="F35" s="355"/>
-      <c r="G35" s="356"/>
+      <c r="C35" s="316"/>
+      <c r="D35" s="316"/>
+      <c r="E35" s="316"/>
+      <c r="F35" s="316"/>
+      <c r="G35" s="317"/>
       <c r="H35" s="84"/>
       <c r="I35" s="84"/>
       <c r="J35" s="84"/>
       <c r="K35" s="84"/>
-      <c r="L35" s="354" t="s">
+      <c r="L35" s="315" t="s">
         <v>84</v>
       </c>
-      <c r="M35" s="355"/>
-      <c r="N35" s="355"/>
-      <c r="O35" s="355"/>
-      <c r="P35" s="355"/>
-      <c r="Q35" s="355"/>
-      <c r="R35" s="356"/>
+      <c r="M35" s="316"/>
+      <c r="N35" s="316"/>
+      <c r="O35" s="316"/>
+      <c r="P35" s="316"/>
+      <c r="Q35" s="316"/>
+      <c r="R35" s="317"/>
       <c r="S35" s="80"/>
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A36" s="79"/>
-      <c r="B36" s="351" t="s">
+      <c r="B36" s="392" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="352"/>
-      <c r="D36" s="453" t="s">
+      <c r="C36" s="393"/>
+      <c r="D36" s="358" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="454"/>
-      <c r="F36" s="498" t="str">
+      <c r="E36" s="359"/>
+      <c r="F36" s="418" t="str">
         <f>IF(T37,"ACCEPTABLE","NOT ACCEPTABLE")</f>
         <v>ACCEPTABLE</v>
       </c>
-      <c r="G36" s="446"/>
+      <c r="G36" s="321"/>
       <c r="H36" s="84"/>
       <c r="I36" s="84"/>
       <c r="J36" s="84"/>
       <c r="K36" s="84"/>
-      <c r="L36" s="351" t="s">
+      <c r="L36" s="392" t="s">
         <v>73</v>
       </c>
-      <c r="M36" s="352"/>
-      <c r="N36" s="353"/>
-      <c r="O36" s="453" t="s">
+      <c r="M36" s="393"/>
+      <c r="N36" s="420"/>
+      <c r="O36" s="358" t="s">
         <v>125</v>
       </c>
-      <c r="P36" s="454"/>
-      <c r="Q36" s="443" t="str">
+      <c r="P36" s="359"/>
+      <c r="Q36" s="318" t="str">
         <f>IF(T39,"ACCEPTABLE","NOT ACCEPTABLE")</f>
         <v>ACCEPTABLE</v>
       </c>
-      <c r="R36" s="444"/>
+      <c r="R36" s="319"/>
       <c r="S36" s="80"/>
     </row>
     <row r="37" spans="1:29" ht="15" customHeight="1">
       <c r="A37" s="79"/>
-      <c r="B37" s="506" t="s">
+      <c r="B37" s="324" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="507"/>
-      <c r="D37" s="455"/>
-      <c r="E37" s="456"/>
-      <c r="F37" s="498"/>
-      <c r="G37" s="446"/>
+      <c r="C37" s="325"/>
+      <c r="D37" s="360"/>
+      <c r="E37" s="361"/>
+      <c r="F37" s="418"/>
+      <c r="G37" s="321"/>
       <c r="H37" s="84"/>
       <c r="I37" s="84"/>
       <c r="J37" s="84"/>
       <c r="K37" s="84"/>
-      <c r="L37" s="345" t="s">
+      <c r="L37" s="524" t="s">
         <v>82</v>
       </c>
-      <c r="M37" s="346"/>
-      <c r="N37" s="347"/>
-      <c r="O37" s="455"/>
-      <c r="P37" s="456"/>
-      <c r="Q37" s="445"/>
-      <c r="R37" s="446"/>
+      <c r="M37" s="525"/>
+      <c r="N37" s="526"/>
+      <c r="O37" s="360"/>
+      <c r="P37" s="361"/>
+      <c r="Q37" s="320"/>
+      <c r="R37" s="321"/>
       <c r="S37" s="80"/>
       <c r="T37" s="21" t="b">
         <f>H82&gt;E66</f>
@@ -7331,23 +7313,23 @@
     </row>
     <row r="38" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A38" s="79"/>
-      <c r="B38" s="508"/>
-      <c r="C38" s="509"/>
-      <c r="D38" s="457"/>
-      <c r="E38" s="458"/>
-      <c r="F38" s="499"/>
-      <c r="G38" s="448"/>
+      <c r="B38" s="326"/>
+      <c r="C38" s="327"/>
+      <c r="D38" s="362"/>
+      <c r="E38" s="363"/>
+      <c r="F38" s="419"/>
+      <c r="G38" s="323"/>
       <c r="H38" s="84"/>
       <c r="I38" s="84"/>
       <c r="J38" s="84"/>
       <c r="K38" s="84"/>
-      <c r="L38" s="348"/>
-      <c r="M38" s="349"/>
-      <c r="N38" s="350"/>
-      <c r="O38" s="457"/>
-      <c r="P38" s="458"/>
-      <c r="Q38" s="447"/>
-      <c r="R38" s="448"/>
+      <c r="L38" s="527"/>
+      <c r="M38" s="528"/>
+      <c r="N38" s="529"/>
+      <c r="O38" s="362"/>
+      <c r="P38" s="363"/>
+      <c r="Q38" s="322"/>
+      <c r="R38" s="323"/>
       <c r="S38" s="80"/>
       <c r="T38" s="21" t="b">
         <f>E75&lt;H78</f>
@@ -7381,55 +7363,55 @@
     </row>
     <row r="40" spans="1:29" ht="15.75" thickBot="1">
       <c r="A40" s="79"/>
-      <c r="B40" s="354" t="s">
+      <c r="B40" s="315" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="355"/>
-      <c r="D40" s="355"/>
-      <c r="E40" s="451"/>
-      <c r="F40" s="451"/>
-      <c r="G40" s="452"/>
+      <c r="C40" s="316"/>
+      <c r="D40" s="316"/>
+      <c r="E40" s="339"/>
+      <c r="F40" s="339"/>
+      <c r="G40" s="340"/>
       <c r="H40" s="84"/>
       <c r="I40" s="84"/>
       <c r="J40" s="84"/>
-      <c r="K40" s="354" t="s">
+      <c r="K40" s="315" t="s">
         <v>170</v>
       </c>
-      <c r="L40" s="355"/>
-      <c r="M40" s="355"/>
-      <c r="N40" s="355"/>
-      <c r="O40" s="355"/>
-      <c r="P40" s="355"/>
-      <c r="Q40" s="451"/>
-      <c r="R40" s="452"/>
+      <c r="L40" s="316"/>
+      <c r="M40" s="316"/>
+      <c r="N40" s="316"/>
+      <c r="O40" s="316"/>
+      <c r="P40" s="316"/>
+      <c r="Q40" s="339"/>
+      <c r="R40" s="340"/>
       <c r="S40" s="80"/>
     </row>
     <row r="41" spans="1:29" ht="16.5" thickBot="1">
       <c r="A41" s="79"/>
-      <c r="B41" s="351" t="s">
+      <c r="B41" s="392" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="352"/>
-      <c r="D41" s="453" t="s">
+      <c r="C41" s="393"/>
+      <c r="D41" s="358" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="454"/>
-      <c r="F41" s="443" t="str">
+      <c r="E41" s="359"/>
+      <c r="F41" s="318" t="str">
         <f>IF(T38,"ACCEPTABLE","NOT ACCEPTABLE")</f>
         <v>ACCEPTABLE</v>
       </c>
-      <c r="G41" s="444"/>
+      <c r="G41" s="319"/>
       <c r="H41" s="84"/>
       <c r="I41" s="84"/>
       <c r="J41" s="84"/>
-      <c r="K41" s="519" t="s">
+      <c r="K41" s="341" t="s">
         <v>191</v>
       </c>
-      <c r="L41" s="520"/>
-      <c r="M41" s="523" t="s">
+      <c r="L41" s="342"/>
+      <c r="M41" s="345" t="s">
         <v>194</v>
       </c>
-      <c r="N41" s="523"/>
+      <c r="N41" s="345"/>
       <c r="O41" s="129">
         <f>'Data Sheet - Cyls &amp; Packs'!V15</f>
         <v>5.2</v>
@@ -7437,11 +7419,11 @@
       <c r="P41" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="Q41" s="521" t="str">
+      <c r="Q41" s="343" t="str">
         <f>IF(T41,"ACCEPTABLE","NOT ACCEPTABLE")</f>
         <v>NOT ACCEPTABLE</v>
       </c>
-      <c r="R41" s="522"/>
+      <c r="R41" s="344"/>
       <c r="S41" s="80"/>
       <c r="T41" s="30" t="b">
         <f>Q22&lt;O41</f>
@@ -7450,25 +7432,25 @@
     </row>
     <row r="42" spans="1:29" ht="15.75">
       <c r="A42" s="79"/>
-      <c r="B42" s="506" t="s">
+      <c r="B42" s="324" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="507"/>
-      <c r="D42" s="455"/>
-      <c r="E42" s="456"/>
-      <c r="F42" s="445"/>
-      <c r="G42" s="446"/>
+      <c r="C42" s="325"/>
+      <c r="D42" s="360"/>
+      <c r="E42" s="361"/>
+      <c r="F42" s="320"/>
+      <c r="G42" s="321"/>
       <c r="H42" s="84"/>
       <c r="I42" s="84"/>
       <c r="J42" s="84"/>
-      <c r="K42" s="357" t="s">
+      <c r="K42" s="530" t="s">
         <v>192</v>
       </c>
-      <c r="L42" s="358"/>
-      <c r="M42" s="371" t="s">
+      <c r="L42" s="531"/>
+      <c r="M42" s="536" t="s">
         <v>194</v>
       </c>
-      <c r="N42" s="371"/>
+      <c r="N42" s="536"/>
       <c r="O42" s="130">
         <f>'Data Sheet - Cyls &amp; Packs'!AB14</f>
         <v>8.5</v>
@@ -7476,11 +7458,11 @@
       <c r="P42" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="Q42" s="368" t="str">
+      <c r="Q42" s="534" t="str">
         <f>IF(T42,"ACCEPTABLE","NOT ACCEPTABLE")</f>
         <v>ACCEPTABLE</v>
       </c>
-      <c r="R42" s="369"/>
+      <c r="R42" s="535"/>
       <c r="S42" s="80"/>
       <c r="T42" s="30" t="b">
         <f>Q22&lt;O42</f>
@@ -7489,23 +7471,23 @@
     </row>
     <row r="43" spans="1:29" ht="16.5" thickBot="1">
       <c r="A43" s="79"/>
-      <c r="B43" s="508"/>
-      <c r="C43" s="509"/>
-      <c r="D43" s="457"/>
-      <c r="E43" s="458"/>
-      <c r="F43" s="447"/>
-      <c r="G43" s="448"/>
+      <c r="B43" s="326"/>
+      <c r="C43" s="327"/>
+      <c r="D43" s="362"/>
+      <c r="E43" s="363"/>
+      <c r="F43" s="322"/>
+      <c r="G43" s="323"/>
       <c r="H43" s="84"/>
       <c r="I43" s="84"/>
       <c r="J43" s="84"/>
-      <c r="K43" s="459" t="s">
+      <c r="K43" s="466" t="s">
         <v>193</v>
       </c>
-      <c r="L43" s="370"/>
-      <c r="M43" s="370" t="s">
+      <c r="L43" s="467"/>
+      <c r="M43" s="467" t="s">
         <v>194</v>
       </c>
-      <c r="N43" s="370"/>
+      <c r="N43" s="467"/>
       <c r="O43" s="131">
         <f>'Data Sheet - Cyls &amp; Packs'!AB16</f>
         <v>13.5</v>
@@ -7513,11 +7495,11 @@
       <c r="P43" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="Q43" s="366" t="str">
+      <c r="Q43" s="532" t="str">
         <f>IF(T43,"ACCEPTABLE","NOT ACCEPTABLE")</f>
         <v>ACCEPTABLE</v>
       </c>
-      <c r="R43" s="367"/>
+      <c r="R43" s="533"/>
       <c r="S43" s="80"/>
       <c r="T43" s="30" t="b">
         <f>Q22&lt;O43</f>
@@ -7549,60 +7531,60 @@
     </row>
     <row r="45" spans="1:29" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A45" s="79"/>
-      <c r="B45" s="354" t="s">
+      <c r="B45" s="315" t="s">
         <v>217</v>
       </c>
-      <c r="C45" s="355"/>
-      <c r="D45" s="451"/>
-      <c r="E45" s="451"/>
-      <c r="F45" s="451"/>
-      <c r="G45" s="452"/>
+      <c r="C45" s="316"/>
+      <c r="D45" s="339"/>
+      <c r="E45" s="339"/>
+      <c r="F45" s="339"/>
+      <c r="G45" s="340"/>
       <c r="H45" s="84"/>
       <c r="I45" s="84"/>
       <c r="J45" s="84"/>
-      <c r="K45" s="510" t="s">
+      <c r="K45" s="328" t="s">
         <v>124</v>
       </c>
-      <c r="L45" s="511"/>
-      <c r="M45" s="511"/>
-      <c r="N45" s="512"/>
-      <c r="O45" s="527" t="str">
+      <c r="L45" s="329"/>
+      <c r="M45" s="329"/>
+      <c r="N45" s="330"/>
+      <c r="O45" s="349" t="str">
         <f>IF(T68,"ACCEPTABLE","NOT ACCEPTABLE")</f>
         <v>ACCEPTABLE</v>
       </c>
-      <c r="P45" s="528"/>
-      <c r="Q45" s="528"/>
-      <c r="R45" s="529"/>
+      <c r="P45" s="350"/>
+      <c r="Q45" s="350"/>
+      <c r="R45" s="351"/>
       <c r="S45" s="80"/>
     </row>
     <row r="46" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A46" s="79"/>
-      <c r="B46" s="351" t="s">
+      <c r="B46" s="392" t="s">
         <v>219</v>
       </c>
-      <c r="C46" s="353"/>
-      <c r="D46" s="453" t="s">
+      <c r="C46" s="420"/>
+      <c r="D46" s="358" t="s">
         <v>125</v>
       </c>
-      <c r="E46" s="454"/>
-      <c r="F46" s="443" t="str">
+      <c r="E46" s="359"/>
+      <c r="F46" s="318" t="str">
         <f>IF(T48,"ACCEPTABLE","NOT ACCEPTABLE")</f>
         <v>ACCEPTABLE</v>
       </c>
-      <c r="G46" s="444"/>
+      <c r="G46" s="319"/>
       <c r="H46" s="84"/>
       <c r="I46" s="84"/>
       <c r="J46" s="84"/>
-      <c r="K46" s="513"/>
-      <c r="L46" s="514"/>
-      <c r="M46" s="514"/>
-      <c r="N46" s="515"/>
-      <c r="O46" s="530"/>
-      <c r="P46" s="531"/>
-      <c r="Q46" s="531"/>
-      <c r="R46" s="532"/>
+      <c r="K46" s="331"/>
+      <c r="L46" s="332"/>
+      <c r="M46" s="332"/>
+      <c r="N46" s="333"/>
+      <c r="O46" s="352"/>
+      <c r="P46" s="353"/>
+      <c r="Q46" s="353"/>
+      <c r="R46" s="354"/>
       <c r="S46" s="80"/>
-      <c r="T46" s="277" t="b">
+      <c r="T46" s="271" t="b">
         <f>Q14&gt;39</f>
         <v>1</v>
       </c>
@@ -7610,25 +7592,25 @@
     </row>
     <row r="47" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="79"/>
-      <c r="B47" s="500" t="s">
+      <c r="B47" s="421" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="501"/>
-      <c r="D47" s="457"/>
-      <c r="E47" s="458"/>
-      <c r="F47" s="447"/>
-      <c r="G47" s="448"/>
+      <c r="C47" s="422"/>
+      <c r="D47" s="362"/>
+      <c r="E47" s="363"/>
+      <c r="F47" s="322"/>
+      <c r="G47" s="323"/>
       <c r="H47" s="84"/>
       <c r="I47" s="84"/>
       <c r="J47" s="84"/>
-      <c r="K47" s="516"/>
-      <c r="L47" s="517"/>
-      <c r="M47" s="517"/>
-      <c r="N47" s="518"/>
-      <c r="O47" s="533"/>
-      <c r="P47" s="534"/>
-      <c r="Q47" s="534"/>
-      <c r="R47" s="535"/>
+      <c r="K47" s="334"/>
+      <c r="L47" s="335"/>
+      <c r="M47" s="335"/>
+      <c r="N47" s="336"/>
+      <c r="O47" s="355"/>
+      <c r="P47" s="356"/>
+      <c r="Q47" s="356"/>
+      <c r="R47" s="357"/>
       <c r="S47" s="80"/>
       <c r="T47" s="21" t="b">
         <f>Q14&lt;58</f>
@@ -7662,13 +7644,13 @@
     </row>
     <row r="49" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="81"/>
-      <c r="B49" s="423" t="s">
+      <c r="B49" s="448" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="424"/>
-      <c r="D49" s="424"/>
-      <c r="E49" s="424"/>
-      <c r="F49" s="425"/>
+      <c r="C49" s="449"/>
+      <c r="D49" s="449"/>
+      <c r="E49" s="449"/>
+      <c r="F49" s="450"/>
       <c r="G49" s="84"/>
       <c r="H49" s="82"/>
       <c r="I49" s="82"/>
@@ -7692,11 +7674,11 @@
     </row>
     <row r="50" spans="1:32" ht="15.75" thickBot="1">
       <c r="A50" s="79"/>
-      <c r="B50" s="362" t="s">
+      <c r="B50" s="439" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="361"/>
-      <c r="D50" s="361"/>
+      <c r="C50" s="440"/>
+      <c r="D50" s="440"/>
       <c r="E50" s="104">
         <v>20</v>
       </c>
@@ -7709,14 +7691,14 @@
       <c r="J50" s="84"/>
       <c r="K50" s="84"/>
       <c r="L50" s="84"/>
-      <c r="M50" s="363" t="s">
+      <c r="M50" s="380" t="s">
         <v>22</v>
       </c>
-      <c r="N50" s="364"/>
-      <c r="O50" s="364"/>
-      <c r="P50" s="364"/>
-      <c r="Q50" s="364"/>
-      <c r="R50" s="365"/>
+      <c r="N50" s="381"/>
+      <c r="O50" s="381"/>
+      <c r="P50" s="381"/>
+      <c r="Q50" s="381"/>
+      <c r="R50" s="382"/>
       <c r="S50" s="80"/>
       <c r="U50" s="3"/>
       <c r="Y50" s="9"/>
@@ -7728,11 +7710,11 @@
     </row>
     <row r="51" spans="1:32">
       <c r="A51" s="79"/>
-      <c r="B51" s="428" t="s">
+      <c r="B51" s="394" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="429"/>
-      <c r="D51" s="429"/>
+      <c r="C51" s="395"/>
+      <c r="D51" s="395"/>
       <c r="E51" s="38">
         <f>Q9+Q8</f>
         <v>1800</v>
@@ -7776,11 +7758,11 @@
     </row>
     <row r="52" spans="1:32" ht="18" thickBot="1">
       <c r="A52" s="79"/>
-      <c r="B52" s="428" t="s">
+      <c r="B52" s="394" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="429"/>
-      <c r="D52" s="429"/>
+      <c r="C52" s="395"/>
+      <c r="D52" s="395"/>
       <c r="E52" s="95">
         <v>9.81</v>
       </c>
@@ -7815,11 +7797,11 @@
     </row>
     <row r="53" spans="1:32" ht="15.75" thickBot="1">
       <c r="A53" s="79"/>
-      <c r="B53" s="360" t="s">
+      <c r="B53" s="416" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="359"/>
-      <c r="D53" s="359"/>
+      <c r="C53" s="417"/>
+      <c r="D53" s="417"/>
       <c r="E53" s="101">
         <f>E51*E52*(E50/100)</f>
         <v>3531.6000000000004</v>
@@ -7833,11 +7815,11 @@
       <c r="J53" s="84"/>
       <c r="K53" s="84"/>
       <c r="L53" s="84"/>
-      <c r="M53" s="333" t="s">
+      <c r="M53" s="374" t="s">
         <v>14</v>
       </c>
-      <c r="N53" s="334"/>
-      <c r="O53" s="335"/>
+      <c r="N53" s="375"/>
+      <c r="O53" s="376"/>
       <c r="P53" s="46" t="s">
         <v>113</v>
       </c>
@@ -7851,13 +7833,13 @@
     </row>
     <row r="54" spans="1:32" ht="15.75" thickBot="1">
       <c r="A54" s="79"/>
-      <c r="B54" s="333" t="s">
+      <c r="B54" s="374" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="334"/>
-      <c r="D54" s="334"/>
-      <c r="E54" s="334"/>
-      <c r="F54" s="335"/>
+      <c r="C54" s="375"/>
+      <c r="D54" s="375"/>
+      <c r="E54" s="375"/>
+      <c r="F54" s="376"/>
       <c r="G54" s="84"/>
       <c r="H54" s="84"/>
       <c r="I54" s="84"/>
@@ -7887,11 +7869,11 @@
     </row>
     <row r="55" spans="1:32" ht="15.75" thickBot="1">
       <c r="A55" s="79"/>
-      <c r="B55" s="426" t="s">
+      <c r="B55" s="451" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="427"/>
-      <c r="D55" s="427"/>
+      <c r="C55" s="452"/>
+      <c r="D55" s="452"/>
       <c r="E55" s="50">
         <f>E51*E52+E53</f>
         <v>21189.599999999999</v>
@@ -7936,36 +7918,36 @@
     </row>
     <row r="57" spans="1:32" ht="13.5" customHeight="1" thickBot="1">
       <c r="A57" s="79"/>
-      <c r="B57" s="423" t="s">
+      <c r="B57" s="448" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="424"/>
-      <c r="D57" s="424"/>
-      <c r="E57" s="424"/>
-      <c r="F57" s="425"/>
+      <c r="C57" s="449"/>
+      <c r="D57" s="449"/>
+      <c r="E57" s="449"/>
+      <c r="F57" s="450"/>
       <c r="G57" s="84"/>
       <c r="H57" s="84"/>
       <c r="I57" s="84"/>
       <c r="J57" s="84"/>
-      <c r="K57" s="363" t="s">
+      <c r="K57" s="380" t="s">
         <v>54</v>
       </c>
-      <c r="L57" s="364"/>
-      <c r="M57" s="364"/>
-      <c r="N57" s="364"/>
-      <c r="O57" s="364"/>
-      <c r="P57" s="364"/>
-      <c r="Q57" s="364"/>
-      <c r="R57" s="365"/>
+      <c r="L57" s="381"/>
+      <c r="M57" s="381"/>
+      <c r="N57" s="381"/>
+      <c r="O57" s="381"/>
+      <c r="P57" s="381"/>
+      <c r="Q57" s="381"/>
+      <c r="R57" s="382"/>
       <c r="S57" s="80"/>
     </row>
     <row r="58" spans="1:32">
       <c r="A58" s="79"/>
-      <c r="B58" s="362" t="s">
+      <c r="B58" s="439" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="361"/>
-      <c r="D58" s="361"/>
+      <c r="C58" s="440"/>
+      <c r="D58" s="440"/>
       <c r="E58" s="106">
         <f>E55</f>
         <v>21189.599999999999</v>
@@ -7977,20 +7959,20 @@
       <c r="H58" s="84"/>
       <c r="I58" s="84"/>
       <c r="J58" s="84"/>
-      <c r="K58" s="362" t="s">
+      <c r="K58" s="439" t="s">
         <v>61</v>
       </c>
-      <c r="L58" s="361"/>
+      <c r="L58" s="440"/>
       <c r="M58" s="100">
         <v>1.9</v>
       </c>
       <c r="N58" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="O58" s="361" t="s">
+      <c r="O58" s="440" t="s">
         <v>185</v>
       </c>
-      <c r="P58" s="361"/>
+      <c r="P58" s="440"/>
       <c r="Q58" s="66">
         <f>Q23</f>
         <v>120</v>
@@ -8002,11 +7984,11 @@
     </row>
     <row r="59" spans="1:32" ht="18" thickBot="1">
       <c r="A59" s="79"/>
-      <c r="B59" s="428" t="s">
+      <c r="B59" s="394" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="429"/>
-      <c r="D59" s="429"/>
+      <c r="C59" s="395"/>
+      <c r="D59" s="395"/>
       <c r="E59" s="96">
         <f>Q10</f>
         <v>1000</v>
@@ -8018,10 +8000,10 @@
       <c r="H59" s="84"/>
       <c r="I59" s="84"/>
       <c r="J59" s="84"/>
-      <c r="K59" s="360" t="s">
+      <c r="K59" s="416" t="s">
         <v>187</v>
       </c>
-      <c r="L59" s="359"/>
+      <c r="L59" s="417"/>
       <c r="M59" s="40">
         <f>(Q59*Q59)*Q53</f>
         <v>1.13097335544E-2</v>
@@ -8029,10 +8011,10 @@
       <c r="N59" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="O59" s="359" t="s">
+      <c r="O59" s="417" t="s">
         <v>186</v>
       </c>
-      <c r="P59" s="359"/>
+      <c r="P59" s="417"/>
       <c r="Q59" s="40">
         <f>(Q58/1000)/2</f>
         <v>0.06</v>
@@ -8044,11 +8026,11 @@
     </row>
     <row r="60" spans="1:32" ht="15.75" thickBot="1">
       <c r="A60" s="79"/>
-      <c r="B60" s="428" t="s">
+      <c r="B60" s="394" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="429"/>
-      <c r="D60" s="429"/>
+      <c r="C60" s="395"/>
+      <c r="D60" s="395"/>
       <c r="E60" s="96">
         <f>Q11</f>
         <v>1500</v>
@@ -8060,25 +8042,25 @@
       <c r="H60" s="84"/>
       <c r="I60" s="84"/>
       <c r="J60" s="84"/>
-      <c r="K60" s="333" t="s">
+      <c r="K60" s="374" t="s">
         <v>57</v>
       </c>
-      <c r="L60" s="334"/>
-      <c r="M60" s="334"/>
-      <c r="N60" s="334"/>
-      <c r="O60" s="334"/>
-      <c r="P60" s="334"/>
-      <c r="Q60" s="334"/>
-      <c r="R60" s="335"/>
+      <c r="L60" s="375"/>
+      <c r="M60" s="375"/>
+      <c r="N60" s="375"/>
+      <c r="O60" s="375"/>
+      <c r="P60" s="375"/>
+      <c r="Q60" s="375"/>
+      <c r="R60" s="376"/>
       <c r="S60" s="80"/>
     </row>
     <row r="61" spans="1:32" ht="15.75" thickBot="1">
       <c r="A61" s="79"/>
-      <c r="B61" s="360" t="s">
+      <c r="B61" s="416" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="359"/>
-      <c r="D61" s="359"/>
+      <c r="C61" s="417"/>
+      <c r="D61" s="417"/>
       <c r="E61" s="102">
         <f>Q12</f>
         <v>1250</v>
@@ -8090,12 +8072,12 @@
       <c r="H61" s="84"/>
       <c r="I61" s="84"/>
       <c r="J61" s="84"/>
-      <c r="K61" s="524" t="s">
+      <c r="K61" s="346" t="s">
         <v>52</v>
       </c>
-      <c r="L61" s="525"/>
-      <c r="M61" s="525"/>
-      <c r="N61" s="526"/>
+      <c r="L61" s="347"/>
+      <c r="M61" s="347"/>
+      <c r="N61" s="348"/>
       <c r="O61" s="114">
         <f>(M58*Q51)*M59</f>
         <v>2148.8493753360003</v>
@@ -8114,48 +8096,48 @@
     </row>
     <row r="62" spans="1:32" ht="15.75" thickBot="1">
       <c r="A62" s="79"/>
-      <c r="B62" s="387" t="s">
+      <c r="B62" s="478" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="388"/>
-      <c r="D62" s="388"/>
-      <c r="E62" s="388"/>
-      <c r="F62" s="389"/>
+      <c r="C62" s="479"/>
+      <c r="D62" s="479"/>
+      <c r="E62" s="479"/>
+      <c r="F62" s="480"/>
       <c r="G62" s="84"/>
       <c r="H62" s="84"/>
       <c r="I62" s="84"/>
       <c r="J62" s="84"/>
-      <c r="K62" s="333" t="s">
+      <c r="K62" s="374" t="s">
         <v>56</v>
       </c>
-      <c r="L62" s="334"/>
-      <c r="M62" s="334"/>
-      <c r="N62" s="334"/>
-      <c r="O62" s="334"/>
-      <c r="P62" s="334"/>
-      <c r="Q62" s="334"/>
-      <c r="R62" s="335"/>
+      <c r="L62" s="375"/>
+      <c r="M62" s="375"/>
+      <c r="N62" s="375"/>
+      <c r="O62" s="375"/>
+      <c r="P62" s="375"/>
+      <c r="Q62" s="375"/>
+      <c r="R62" s="376"/>
       <c r="S62" s="80"/>
     </row>
     <row r="63" spans="1:32" ht="15.75" thickBot="1">
       <c r="A63" s="79"/>
-      <c r="B63" s="384" t="s">
+      <c r="B63" s="475" t="s">
         <v>150</v>
       </c>
-      <c r="C63" s="385"/>
-      <c r="D63" s="385"/>
-      <c r="E63" s="385"/>
-      <c r="F63" s="386"/>
+      <c r="C63" s="476"/>
+      <c r="D63" s="476"/>
+      <c r="E63" s="476"/>
+      <c r="F63" s="477"/>
       <c r="G63" s="84"/>
       <c r="H63" s="84"/>
       <c r="I63" s="84"/>
       <c r="J63" s="84"/>
-      <c r="K63" s="546" t="s">
+      <c r="K63" s="377" t="s">
         <v>53</v>
       </c>
-      <c r="L63" s="547"/>
-      <c r="M63" s="547"/>
-      <c r="N63" s="548"/>
+      <c r="L63" s="378"/>
+      <c r="M63" s="378"/>
+      <c r="N63" s="379"/>
       <c r="O63" s="69">
         <f>O61/M59</f>
         <v>190000.00000000003</v>
@@ -8174,13 +8156,13 @@
     </row>
     <row r="64" spans="1:32">
       <c r="A64" s="79"/>
-      <c r="B64" s="381" t="s">
+      <c r="B64" s="472" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="382"/>
-      <c r="D64" s="382"/>
-      <c r="E64" s="382"/>
-      <c r="F64" s="383"/>
+      <c r="C64" s="473"/>
+      <c r="D64" s="473"/>
+      <c r="E64" s="473"/>
+      <c r="F64" s="474"/>
       <c r="G64" s="84"/>
       <c r="H64" s="84"/>
       <c r="I64" s="84"/>
@@ -8197,13 +8179,13 @@
     </row>
     <row r="65" spans="1:22" ht="15.75" thickBot="1">
       <c r="A65" s="79"/>
-      <c r="B65" s="407" t="s">
+      <c r="B65" s="496" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="408"/>
-      <c r="D65" s="408"/>
-      <c r="E65" s="408"/>
-      <c r="F65" s="409"/>
+      <c r="C65" s="497"/>
+      <c r="D65" s="497"/>
+      <c r="E65" s="497"/>
+      <c r="F65" s="498"/>
       <c r="G65" s="84"/>
       <c r="H65" s="84"/>
       <c r="I65" s="84"/>
@@ -8220,11 +8202,11 @@
     </row>
     <row r="66" spans="1:22" ht="15.75" thickBot="1">
       <c r="A66" s="79"/>
-      <c r="B66" s="392" t="s">
+      <c r="B66" s="483" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="393"/>
-      <c r="D66" s="393"/>
+      <c r="C66" s="484"/>
+      <c r="D66" s="484"/>
       <c r="E66" s="103">
         <f>E58*E59/E60</f>
         <v>14126.4</v>
@@ -8238,23 +8220,23 @@
       <c r="J66" s="84"/>
       <c r="K66" s="84"/>
       <c r="L66" s="84"/>
-      <c r="M66" s="363" t="s">
+      <c r="M66" s="380" t="s">
         <v>55</v>
       </c>
-      <c r="N66" s="364"/>
-      <c r="O66" s="364"/>
-      <c r="P66" s="364"/>
-      <c r="Q66" s="364"/>
-      <c r="R66" s="365"/>
+      <c r="N66" s="381"/>
+      <c r="O66" s="381"/>
+      <c r="P66" s="381"/>
+      <c r="Q66" s="381"/>
+      <c r="R66" s="382"/>
       <c r="S66" s="80"/>
     </row>
     <row r="67" spans="1:22" ht="15.75" thickBot="1">
       <c r="A67" s="79"/>
-      <c r="B67" s="390" t="s">
+      <c r="B67" s="481" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="391"/>
-      <c r="D67" s="391"/>
+      <c r="C67" s="482"/>
+      <c r="D67" s="482"/>
       <c r="E67" s="108">
         <f>E58-E66</f>
         <v>7063.1999999999989</v>
@@ -8324,36 +8306,36 @@
     </row>
     <row r="69" spans="1:22" ht="15.75" thickBot="1">
       <c r="A69" s="79"/>
-      <c r="B69" s="363" t="s">
+      <c r="B69" s="380" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="364"/>
-      <c r="D69" s="364"/>
-      <c r="E69" s="364"/>
-      <c r="F69" s="365"/>
+      <c r="C69" s="381"/>
+      <c r="D69" s="381"/>
+      <c r="E69" s="381"/>
+      <c r="F69" s="382"/>
       <c r="G69" s="84"/>
       <c r="H69" s="84"/>
       <c r="I69" s="84"/>
       <c r="J69" s="84"/>
       <c r="K69" s="84"/>
       <c r="L69" s="84"/>
-      <c r="M69" s="333" t="s">
+      <c r="M69" s="374" t="s">
         <v>149</v>
       </c>
-      <c r="N69" s="334"/>
-      <c r="O69" s="334"/>
-      <c r="P69" s="334"/>
-      <c r="Q69" s="334"/>
-      <c r="R69" s="335"/>
+      <c r="N69" s="375"/>
+      <c r="O69" s="375"/>
+      <c r="P69" s="375"/>
+      <c r="Q69" s="375"/>
+      <c r="R69" s="376"/>
       <c r="S69" s="80"/>
     </row>
     <row r="70" spans="1:22" ht="15.75" thickBot="1">
       <c r="A70" s="79"/>
-      <c r="B70" s="378" t="s">
+      <c r="B70" s="407" t="s">
         <v>185</v>
       </c>
-      <c r="C70" s="379"/>
-      <c r="D70" s="380"/>
+      <c r="C70" s="408"/>
+      <c r="D70" s="409"/>
       <c r="E70" s="58">
         <f>((Q23+Q24)/2)</f>
         <v>82.5</v>
@@ -8367,10 +8349,10 @@
       <c r="J70" s="84"/>
       <c r="K70" s="84"/>
       <c r="L70" s="84"/>
-      <c r="M70" s="403" t="s">
+      <c r="M70" s="494" t="s">
         <v>75</v>
       </c>
-      <c r="N70" s="404"/>
+      <c r="N70" s="495"/>
       <c r="O70" s="43">
         <f>(Q67*N67)/N68</f>
         <v>5232</v>
@@ -8389,11 +8371,11 @@
     </row>
     <row r="71" spans="1:22" ht="15.75" thickBot="1">
       <c r="A71" s="79"/>
-      <c r="B71" s="378" t="s">
+      <c r="B71" s="407" t="s">
         <v>186</v>
       </c>
-      <c r="C71" s="379"/>
-      <c r="D71" s="380"/>
+      <c r="C71" s="408"/>
+      <c r="D71" s="409"/>
       <c r="E71" s="36">
         <f>(E70/1000)/2</f>
         <v>4.1250000000000002E-2</v>
@@ -8407,24 +8389,24 @@
       <c r="J71" s="84"/>
       <c r="K71" s="84"/>
       <c r="L71" s="84"/>
-      <c r="M71" s="333" t="s">
+      <c r="M71" s="374" t="s">
         <v>76</v>
       </c>
-      <c r="N71" s="334"/>
-      <c r="O71" s="334"/>
-      <c r="P71" s="334"/>
-      <c r="Q71" s="334"/>
-      <c r="R71" s="335"/>
+      <c r="N71" s="375"/>
+      <c r="O71" s="375"/>
+      <c r="P71" s="375"/>
+      <c r="Q71" s="375"/>
+      <c r="R71" s="376"/>
       <c r="S71" s="80"/>
       <c r="U71" s="21"/>
     </row>
     <row r="72" spans="1:22" ht="18" thickBot="1">
       <c r="A72" s="79"/>
-      <c r="B72" s="378" t="s">
+      <c r="B72" s="407" t="s">
         <v>187</v>
       </c>
-      <c r="C72" s="379"/>
-      <c r="D72" s="380"/>
+      <c r="C72" s="408"/>
+      <c r="D72" s="409"/>
       <c r="E72" s="36">
         <f>(E71*E71)*Q53</f>
         <v>5.3456162503218753E-3</v>
@@ -8438,10 +8420,10 @@
       <c r="J72" s="84"/>
       <c r="K72" s="84"/>
       <c r="L72" s="84"/>
-      <c r="M72" s="401" t="s">
+      <c r="M72" s="492" t="s">
         <v>77</v>
       </c>
-      <c r="N72" s="402"/>
+      <c r="N72" s="493"/>
       <c r="O72" s="69">
         <f>O70/M59</f>
         <v>462610.36786003807</v>
@@ -8460,11 +8442,11 @@
     </row>
     <row r="73" spans="1:22" ht="15.75" thickBot="1">
       <c r="A73" s="79"/>
-      <c r="B73" s="489" t="s">
+      <c r="B73" s="404" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="490"/>
-      <c r="D73" s="491"/>
+      <c r="C73" s="405"/>
+      <c r="D73" s="406"/>
       <c r="E73" s="31">
         <f>E66</f>
         <v>14126.4</v>
@@ -8488,13 +8470,13 @@
     </row>
     <row r="74" spans="1:22" ht="16.5" customHeight="1" thickBot="1">
       <c r="A74" s="79"/>
-      <c r="B74" s="333" t="s">
+      <c r="B74" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="334"/>
-      <c r="D74" s="334"/>
-      <c r="E74" s="334"/>
-      <c r="F74" s="335"/>
+      <c r="C74" s="375"/>
+      <c r="D74" s="375"/>
+      <c r="E74" s="375"/>
+      <c r="F74" s="376"/>
       <c r="G74" s="84"/>
       <c r="H74" s="84"/>
       <c r="I74" s="84"/>
@@ -8536,13 +8518,13 @@
       <c r="K75" s="84"/>
       <c r="L75" s="84"/>
       <c r="M75" s="84"/>
-      <c r="N75" s="363" t="s">
+      <c r="N75" s="380" t="s">
         <v>79</v>
       </c>
-      <c r="O75" s="364"/>
-      <c r="P75" s="364"/>
-      <c r="Q75" s="364"/>
-      <c r="R75" s="365"/>
+      <c r="O75" s="381"/>
+      <c r="P75" s="381"/>
+      <c r="Q75" s="381"/>
+      <c r="R75" s="382"/>
       <c r="S75" s="80"/>
       <c r="T75" s="30"/>
     </row>
@@ -8560,11 +8542,11 @@
       <c r="K76" s="84"/>
       <c r="L76" s="84"/>
       <c r="M76" s="84"/>
-      <c r="N76" s="543" t="s">
+      <c r="N76" s="371" t="s">
         <v>103</v>
       </c>
-      <c r="O76" s="544"/>
-      <c r="P76" s="545"/>
+      <c r="O76" s="372"/>
+      <c r="P76" s="373"/>
       <c r="Q76" s="119" t="s">
         <v>27</v>
       </c>
@@ -8576,24 +8558,24 @@
     </row>
     <row r="77" spans="1:22" ht="15.75" thickBot="1">
       <c r="A77" s="79"/>
-      <c r="B77" s="267" t="s">
+      <c r="B77" s="380" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="268"/>
-      <c r="D77" s="268"/>
-      <c r="E77" s="268"/>
-      <c r="F77" s="268"/>
-      <c r="G77" s="268"/>
-      <c r="H77" s="268"/>
-      <c r="I77" s="269"/>
+      <c r="C77" s="381"/>
+      <c r="D77" s="381"/>
+      <c r="E77" s="381"/>
+      <c r="F77" s="381"/>
+      <c r="G77" s="381"/>
+      <c r="H77" s="381"/>
+      <c r="I77" s="382"/>
       <c r="J77" s="84"/>
       <c r="K77" s="84"/>
       <c r="L77" s="84"/>
       <c r="M77" s="84"/>
-      <c r="N77" s="378" t="s">
+      <c r="N77" s="407" t="s">
         <v>188</v>
       </c>
-      <c r="O77" s="380"/>
+      <c r="O77" s="409"/>
       <c r="P77" s="59">
         <f>Q22</f>
         <v>7.7</v>
@@ -8606,10 +8588,10 @@
     </row>
     <row r="78" spans="1:22" ht="15.75" customHeight="1">
       <c r="A78" s="79"/>
-      <c r="B78" s="362" t="s">
+      <c r="B78" s="439" t="s">
         <v>185</v>
       </c>
-      <c r="C78" s="361"/>
+      <c r="C78" s="440"/>
       <c r="D78" s="111">
         <f>Q23</f>
         <v>120</v>
@@ -8617,10 +8599,10 @@
       <c r="E78" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="F78" s="341" t="s">
+      <c r="F78" s="313" t="s">
         <v>70</v>
       </c>
-      <c r="G78" s="340"/>
+      <c r="G78" s="314"/>
       <c r="H78" s="66">
         <f>Q17</f>
         <v>160</v>
@@ -8632,10 +8614,10 @@
       <c r="K78" s="84"/>
       <c r="L78" s="84"/>
       <c r="M78" s="84"/>
-      <c r="N78" s="405" t="s">
+      <c r="N78" s="423" t="s">
         <v>189</v>
       </c>
-      <c r="O78" s="406"/>
+      <c r="O78" s="425"/>
       <c r="P78" s="97">
         <f>Q18</f>
         <v>5.5</v>
@@ -8645,16 +8627,16 @@
       </c>
       <c r="R78" s="121"/>
       <c r="S78" s="80"/>
-      <c r="T78" s="278"/>
+      <c r="T78" s="272"/>
       <c r="U78" s="10"/>
       <c r="V78" s="259"/>
     </row>
     <row r="79" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
       <c r="A79" s="79"/>
-      <c r="B79" s="428" t="s">
+      <c r="B79" s="394" t="s">
         <v>186</v>
       </c>
-      <c r="C79" s="429"/>
+      <c r="C79" s="395"/>
       <c r="D79" s="37">
         <f>(D78/1000)/2</f>
         <v>0.06</v>
@@ -8662,10 +8644,10 @@
       <c r="E79" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="F79" s="396" t="s">
+      <c r="F79" s="487" t="s">
         <v>44</v>
       </c>
-      <c r="G79" s="397"/>
+      <c r="G79" s="488"/>
       <c r="H79" s="38">
         <f>H78*Q51</f>
         <v>16000000</v>
@@ -8677,11 +8659,11 @@
       <c r="K79" s="84"/>
       <c r="L79" s="84"/>
       <c r="M79" s="84"/>
-      <c r="N79" s="398"/>
-      <c r="O79" s="399"/>
-      <c r="P79" s="399"/>
-      <c r="Q79" s="399"/>
-      <c r="R79" s="400"/>
+      <c r="N79" s="489"/>
+      <c r="O79" s="490"/>
+      <c r="P79" s="490"/>
+      <c r="Q79" s="490"/>
+      <c r="R79" s="491"/>
       <c r="S79" s="80"/>
       <c r="T79" s="39"/>
       <c r="U79" s="10"/>
@@ -8689,10 +8671,10 @@
     </row>
     <row r="80" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
       <c r="A80" s="79"/>
-      <c r="B80" s="360" t="s">
+      <c r="B80" s="416" t="s">
         <v>187</v>
       </c>
-      <c r="C80" s="359"/>
+      <c r="C80" s="417"/>
       <c r="D80" s="40">
         <f>(D79*D79)*Q53</f>
         <v>1.13097335544E-2</v>
@@ -8700,10 +8682,10 @@
       <c r="E80" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="F80" s="394" t="s">
+      <c r="F80" s="485" t="s">
         <v>45</v>
       </c>
-      <c r="G80" s="395"/>
+      <c r="G80" s="486"/>
       <c r="H80" s="101">
         <f>H79*Q52</f>
         <v>16000000</v>
@@ -8715,42 +8697,42 @@
       <c r="K80" s="84"/>
       <c r="L80" s="84"/>
       <c r="M80" s="84"/>
-      <c r="N80" s="543" t="s">
+      <c r="N80" s="371" t="s">
         <v>78</v>
       </c>
-      <c r="O80" s="544"/>
-      <c r="P80" s="545"/>
-      <c r="Q80" s="279" t="s">
+      <c r="O80" s="372"/>
+      <c r="P80" s="373"/>
+      <c r="Q80" s="273" t="s">
         <v>27</v>
       </c>
       <c r="R80" s="120">
         <v>60</v>
       </c>
       <c r="S80" s="80"/>
-      <c r="T80" s="278"/>
+      <c r="T80" s="272"/>
       <c r="U80" s="10"/>
       <c r="V80" s="259"/>
     </row>
     <row r="81" spans="1:19" ht="15.75" thickBot="1">
       <c r="A81" s="79"/>
-      <c r="B81" s="271" t="s">
+      <c r="B81" s="374" t="s">
         <v>33</v>
       </c>
-      <c r="C81" s="272"/>
-      <c r="D81" s="272"/>
-      <c r="E81" s="272"/>
-      <c r="F81" s="272"/>
-      <c r="G81" s="272"/>
-      <c r="H81" s="272"/>
-      <c r="I81" s="273"/>
+      <c r="C81" s="375"/>
+      <c r="D81" s="375"/>
+      <c r="E81" s="375"/>
+      <c r="F81" s="375"/>
+      <c r="G81" s="375"/>
+      <c r="H81" s="375"/>
+      <c r="I81" s="376"/>
       <c r="J81" s="84"/>
       <c r="K81" s="84"/>
       <c r="L81" s="84"/>
       <c r="M81" s="84"/>
-      <c r="N81" s="378" t="s">
+      <c r="N81" s="407" t="s">
         <v>189</v>
       </c>
-      <c r="O81" s="380"/>
+      <c r="O81" s="409"/>
       <c r="P81" s="59">
         <f>Q19</f>
         <v>9</v>
@@ -8763,19 +8745,19 @@
     </row>
     <row r="82" spans="1:19" ht="15.75" customHeight="1">
       <c r="A82" s="79"/>
-      <c r="B82" s="494" t="s">
+      <c r="B82" s="412" t="s">
         <v>195</v>
       </c>
-      <c r="C82" s="495"/>
-      <c r="D82" s="495"/>
-      <c r="E82" s="492">
+      <c r="C82" s="413"/>
+      <c r="D82" s="413"/>
+      <c r="E82" s="410">
         <f>E50</f>
         <v>20</v>
       </c>
-      <c r="F82" s="504" t="s">
+      <c r="F82" s="311" t="s">
         <v>104</v>
       </c>
-      <c r="G82" s="502" t="s">
+      <c r="G82" s="309" t="s">
         <v>49</v>
       </c>
       <c r="H82" s="124">
@@ -8789,23 +8771,23 @@
       <c r="K82" s="84"/>
       <c r="L82" s="84"/>
       <c r="M82" s="84"/>
-      <c r="N82" s="536" t="s">
+      <c r="N82" s="364" t="s">
         <v>59</v>
       </c>
-      <c r="O82" s="537"/>
-      <c r="P82" s="537"/>
-      <c r="Q82" s="537"/>
-      <c r="R82" s="538"/>
+      <c r="O82" s="365"/>
+      <c r="P82" s="365"/>
+      <c r="Q82" s="365"/>
+      <c r="R82" s="366"/>
       <c r="S82" s="80"/>
     </row>
     <row r="83" spans="1:19" ht="15.75" thickBot="1">
       <c r="A83" s="79"/>
-      <c r="B83" s="496"/>
-      <c r="C83" s="497"/>
-      <c r="D83" s="497"/>
-      <c r="E83" s="493"/>
-      <c r="F83" s="505"/>
-      <c r="G83" s="503"/>
+      <c r="B83" s="414"/>
+      <c r="C83" s="415"/>
+      <c r="D83" s="415"/>
+      <c r="E83" s="411"/>
+      <c r="F83" s="312"/>
+      <c r="G83" s="310"/>
       <c r="H83" s="123">
         <f>H82/1000</f>
         <v>180.95573687039999</v>
@@ -8817,10 +8799,10 @@
       <c r="K83" s="84"/>
       <c r="L83" s="84"/>
       <c r="M83" s="84"/>
-      <c r="N83" s="541" t="s">
+      <c r="N83" s="369" t="s">
         <v>30</v>
       </c>
-      <c r="O83" s="542"/>
+      <c r="O83" s="370"/>
       <c r="P83" s="118" t="s">
         <v>28</v>
       </c>
@@ -8847,10 +8829,10 @@
       <c r="K84" s="84"/>
       <c r="L84" s="84"/>
       <c r="M84" s="84"/>
-      <c r="N84" s="539" t="s">
+      <c r="N84" s="367" t="s">
         <v>81</v>
       </c>
-      <c r="O84" s="540"/>
+      <c r="O84" s="368"/>
       <c r="P84" s="122" t="s">
         <v>28</v>
       </c>
@@ -8910,10 +8892,10 @@
       <c r="B87" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C87" s="487" t="s">
+      <c r="C87" s="402" t="s">
         <v>105</v>
       </c>
-      <c r="D87" s="488"/>
+      <c r="D87" s="403"/>
       <c r="E87" s="84"/>
       <c r="F87" s="84"/>
       <c r="G87" s="84"/>
@@ -8935,10 +8917,10 @@
       <c r="B88" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="C88" s="410" t="s">
+      <c r="C88" s="337" t="s">
         <v>107</v>
       </c>
-      <c r="D88" s="411"/>
+      <c r="D88" s="338"/>
       <c r="E88" s="84"/>
       <c r="F88" s="84"/>
       <c r="G88" s="84"/>
@@ -8957,13 +8939,13 @@
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="79"/>
-      <c r="B89" s="270" t="s">
+      <c r="B89" s="267" t="s">
         <v>218</v>
       </c>
-      <c r="C89" s="410" t="s">
+      <c r="C89" s="337" t="s">
         <v>216</v>
       </c>
-      <c r="D89" s="411"/>
+      <c r="D89" s="338"/>
       <c r="E89" s="84"/>
       <c r="F89" s="84"/>
       <c r="G89" s="84"/>
@@ -8985,10 +8967,10 @@
       <c r="B90" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="410" t="s">
+      <c r="C90" s="337" t="s">
         <v>108</v>
       </c>
-      <c r="D90" s="411"/>
+      <c r="D90" s="338"/>
       <c r="E90" s="84"/>
       <c r="F90" s="84"/>
       <c r="G90" s="84"/>
@@ -9010,10 +8992,10 @@
       <c r="B91" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C91" s="410" t="s">
+      <c r="C91" s="337" t="s">
         <v>109</v>
       </c>
-      <c r="D91" s="411"/>
+      <c r="D91" s="338"/>
       <c r="E91" s="84"/>
       <c r="F91" s="84"/>
       <c r="G91" s="84"/>
@@ -9035,10 +9017,10 @@
       <c r="B92" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="410" t="s">
+      <c r="C92" s="337" t="s">
         <v>110</v>
       </c>
-      <c r="D92" s="411"/>
+      <c r="D92" s="338"/>
       <c r="E92" s="84"/>
       <c r="F92" s="84"/>
       <c r="G92" s="84"/>
@@ -9060,10 +9042,10 @@
       <c r="B93" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C93" s="410" t="s">
+      <c r="C93" s="337" t="s">
         <v>111</v>
       </c>
-      <c r="D93" s="411"/>
+      <c r="D93" s="338"/>
       <c r="E93" s="84"/>
       <c r="F93" s="84"/>
       <c r="G93" s="84"/>
@@ -9085,10 +9067,10 @@
       <c r="B94" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="C94" s="410" t="s">
+      <c r="C94" s="337" t="s">
         <v>115</v>
       </c>
-      <c r="D94" s="411"/>
+      <c r="D94" s="338"/>
       <c r="E94" s="84"/>
       <c r="F94" s="84"/>
       <c r="G94" s="84"/>
@@ -9110,10 +9092,10 @@
       <c r="B95" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="C95" s="410" t="s">
+      <c r="C95" s="337" t="s">
         <v>119</v>
       </c>
-      <c r="D95" s="411"/>
+      <c r="D95" s="338"/>
       <c r="E95" s="84"/>
       <c r="F95" s="84"/>
       <c r="G95" s="84"/>
@@ -9135,10 +9117,10 @@
       <c r="B96" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="C96" s="410" t="s">
+      <c r="C96" s="337" t="s">
         <v>120</v>
       </c>
-      <c r="D96" s="411"/>
+      <c r="D96" s="338"/>
       <c r="E96" s="84"/>
       <c r="F96" s="84"/>
       <c r="G96" s="84"/>
@@ -9160,10 +9142,10 @@
       <c r="B97" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="C97" s="412" t="s">
+      <c r="C97" s="468" t="s">
         <v>148</v>
       </c>
-      <c r="D97" s="413"/>
+      <c r="D97" s="469"/>
       <c r="E97" s="84"/>
       <c r="F97" s="84"/>
       <c r="G97" s="84"/>
@@ -9185,10 +9167,10 @@
       <c r="B98" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C98" s="410" t="s">
+      <c r="C98" s="337" t="s">
         <v>123</v>
       </c>
-      <c r="D98" s="411"/>
+      <c r="D98" s="338"/>
       <c r="E98" s="84"/>
       <c r="F98" s="84"/>
       <c r="G98" s="84"/>
@@ -9210,10 +9192,10 @@
       <c r="B99" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="C99" s="414" t="s">
+      <c r="C99" s="470" t="s">
         <v>175</v>
       </c>
-      <c r="D99" s="415"/>
+      <c r="D99" s="471"/>
       <c r="E99" s="84"/>
       <c r="F99" s="84"/>
       <c r="G99" s="84"/>
@@ -9288,7 +9270,121 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="136">
+  <mergeCells count="138">
+    <mergeCell ref="P3:R5"/>
+    <mergeCell ref="M3:O5"/>
+    <mergeCell ref="K60:R60"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="L37:N38"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L35:R35"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K57:R57"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="N79:R79"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M71:R71"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="M69:R69"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="M66:R66"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="B81:I81"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="Q28:R29"/>
+    <mergeCell ref="M50:R50"/>
+    <mergeCell ref="Q36:R38"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="D41:E43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M28:N29"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="O28:P29"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="D36:E38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="B82:D83"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="F36:G38"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="F46:G47"/>
+    <mergeCell ref="D46:E47"/>
     <mergeCell ref="G82:G83"/>
     <mergeCell ref="F82:F83"/>
     <mergeCell ref="F78:G78"/>
@@ -9313,118 +9409,6 @@
     <mergeCell ref="K63:N63"/>
     <mergeCell ref="N76:P76"/>
     <mergeCell ref="N75:R75"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="D36:E38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="B82:D83"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="F36:G38"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="F46:G47"/>
-    <mergeCell ref="D46:E47"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M28:N29"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="O28:P29"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="Q28:R29"/>
-    <mergeCell ref="M50:R50"/>
-    <mergeCell ref="Q36:R38"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="D41:E43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="N79:R79"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M71:R71"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="M69:R69"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="M66:R66"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="P3:R5"/>
-    <mergeCell ref="M3:O5"/>
-    <mergeCell ref="K60:R60"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="L37:N38"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="L35:R35"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K57:R57"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="M9:P9"/>
   </mergeCells>
   <conditionalFormatting sqref="F41 F36 Q41:Q43">
     <cfRule type="cellIs" dxfId="13" priority="60" operator="equal">
@@ -9521,24 +9505,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B1" s="561" t="s">
+      <c r="B1" s="577" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="562"/>
-      <c r="D1" s="562"/>
-      <c r="E1" s="562"/>
-      <c r="F1" s="562"/>
-      <c r="G1" s="562"/>
-      <c r="H1" s="562"/>
-      <c r="I1" s="562"/>
-      <c r="J1" s="562"/>
-      <c r="K1" s="562"/>
-      <c r="L1" s="562"/>
-      <c r="M1" s="562"/>
-      <c r="N1" s="562"/>
-      <c r="O1" s="562"/>
-      <c r="P1" s="562"/>
-      <c r="Q1" s="563"/>
+      <c r="C1" s="578"/>
+      <c r="D1" s="578"/>
+      <c r="E1" s="578"/>
+      <c r="F1" s="578"/>
+      <c r="G1" s="578"/>
+      <c r="H1" s="578"/>
+      <c r="I1" s="578"/>
+      <c r="J1" s="578"/>
+      <c r="K1" s="578"/>
+      <c r="L1" s="578"/>
+      <c r="M1" s="578"/>
+      <c r="N1" s="578"/>
+      <c r="O1" s="578"/>
+      <c r="P1" s="578"/>
+      <c r="Q1" s="579"/>
       <c r="R1" s="26"/>
       <c r="AG1" s="24"/>
       <c r="AH1" s="24"/>
@@ -9783,21 +9767,21 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="26"/>
-      <c r="S11" s="575" t="s">
+      <c r="S11" s="591" t="s">
         <v>153</v>
       </c>
-      <c r="T11" s="576"/>
-      <c r="U11" s="576"/>
-      <c r="V11" s="576"/>
-      <c r="W11" s="576"/>
-      <c r="X11" s="576"/>
-      <c r="Y11" s="576"/>
-      <c r="Z11" s="576"/>
-      <c r="AA11" s="576"/>
-      <c r="AB11" s="576"/>
-      <c r="AC11" s="576"/>
-      <c r="AD11" s="576"/>
-      <c r="AE11" s="577"/>
+      <c r="T11" s="592"/>
+      <c r="U11" s="592"/>
+      <c r="V11" s="592"/>
+      <c r="W11" s="592"/>
+      <c r="X11" s="592"/>
+      <c r="Y11" s="592"/>
+      <c r="Z11" s="592"/>
+      <c r="AA11" s="592"/>
+      <c r="AB11" s="592"/>
+      <c r="AC11" s="592"/>
+      <c r="AD11" s="592"/>
+      <c r="AE11" s="593"/>
       <c r="AF11" s="24"/>
       <c r="AG11" s="24"/>
       <c r="AH11" s="24"/>
@@ -9822,23 +9806,23 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="26"/>
-      <c r="S12" s="570" t="s">
+      <c r="S12" s="586" t="s">
         <v>154</v>
       </c>
-      <c r="T12" s="571"/>
-      <c r="U12" s="571"/>
-      <c r="V12" s="571"/>
-      <c r="W12" s="571"/>
-      <c r="X12" s="571"/>
-      <c r="Y12" s="572" t="s">
+      <c r="T12" s="587"/>
+      <c r="U12" s="587"/>
+      <c r="V12" s="587"/>
+      <c r="W12" s="587"/>
+      <c r="X12" s="587"/>
+      <c r="Y12" s="588" t="s">
         <v>161</v>
       </c>
-      <c r="Z12" s="573"/>
-      <c r="AA12" s="573"/>
-      <c r="AB12" s="573"/>
-      <c r="AC12" s="573"/>
-      <c r="AD12" s="573"/>
-      <c r="AE12" s="574"/>
+      <c r="Z12" s="589"/>
+      <c r="AA12" s="589"/>
+      <c r="AB12" s="589"/>
+      <c r="AC12" s="589"/>
+      <c r="AD12" s="589"/>
+      <c r="AE12" s="590"/>
       <c r="AF12" s="24"/>
       <c r="AG12" s="24"/>
       <c r="AH12" s="24"/>
@@ -9862,10 +9846,10 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
-      <c r="S13" s="578" t="s">
+      <c r="S13" s="594" t="s">
         <v>202</v>
       </c>
-      <c r="T13" s="579"/>
+      <c r="T13" s="595"/>
       <c r="U13" s="144" t="s">
         <v>201</v>
       </c>
@@ -9878,10 +9862,10 @@
       <c r="X13" s="146" t="s">
         <v>155</v>
       </c>
-      <c r="Y13" s="578" t="s">
+      <c r="Y13" s="594" t="s">
         <v>202</v>
       </c>
-      <c r="Z13" s="579"/>
+      <c r="Z13" s="595"/>
       <c r="AA13" s="144" t="s">
         <v>201</v>
       </c>
@@ -9920,39 +9904,39 @@
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
-      <c r="S14" s="580" t="s">
+      <c r="S14" s="596" t="s">
         <v>156</v>
       </c>
-      <c r="T14" s="581"/>
-      <c r="U14" s="280">
+      <c r="T14" s="597"/>
+      <c r="U14" s="274">
         <v>5</v>
       </c>
-      <c r="V14" s="281">
+      <c r="V14" s="275">
         <v>3.8</v>
       </c>
-      <c r="W14" s="281">
+      <c r="W14" s="275">
         <v>170</v>
       </c>
-      <c r="X14" s="282">
+      <c r="X14" s="276">
         <v>250</v>
       </c>
-      <c r="Y14" s="582" t="s">
+      <c r="Y14" s="598" t="s">
         <v>164</v>
       </c>
-      <c r="Z14" s="583"/>
-      <c r="AA14" s="283">
+      <c r="Z14" s="599"/>
+      <c r="AA14" s="277">
         <v>10</v>
       </c>
-      <c r="AB14" s="284">
+      <c r="AB14" s="278">
         <v>8.5</v>
       </c>
-      <c r="AC14" s="281">
+      <c r="AC14" s="275">
         <v>213</v>
       </c>
-      <c r="AD14" s="285">
+      <c r="AD14" s="279">
         <v>198</v>
       </c>
-      <c r="AE14" s="282">
+      <c r="AE14" s="276">
         <v>260</v>
       </c>
       <c r="AF14" s="24"/>
@@ -9978,39 +9962,39 @@
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
-      <c r="S15" s="568" t="s">
+      <c r="S15" s="584" t="s">
         <v>157</v>
       </c>
-      <c r="T15" s="569"/>
-      <c r="U15" s="286">
+      <c r="T15" s="585"/>
+      <c r="U15" s="280">
         <v>6</v>
       </c>
-      <c r="V15" s="287">
+      <c r="V15" s="281">
         <v>5.2</v>
       </c>
-      <c r="W15" s="288">
+      <c r="W15" s="282">
         <v>178</v>
       </c>
-      <c r="X15" s="289">
+      <c r="X15" s="283">
         <v>300</v>
       </c>
-      <c r="Y15" s="566" t="s">
+      <c r="Y15" s="582" t="s">
         <v>165</v>
       </c>
-      <c r="Z15" s="567"/>
-      <c r="AA15" s="290">
+      <c r="Z15" s="583"/>
+      <c r="AA15" s="284">
         <v>12</v>
       </c>
-      <c r="AB15" s="291">
+      <c r="AB15" s="285">
         <v>10.199999999999999</v>
       </c>
-      <c r="AC15" s="291">
+      <c r="AC15" s="285">
         <v>213</v>
       </c>
-      <c r="AD15" s="292">
+      <c r="AD15" s="286">
         <v>198</v>
       </c>
-      <c r="AE15" s="293">
+      <c r="AE15" s="287">
         <v>301.5</v>
       </c>
       <c r="AF15" s="24"/>
@@ -10036,39 +10020,39 @@
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
-      <c r="S16" s="566" t="s">
+      <c r="S16" s="582" t="s">
         <v>158</v>
       </c>
-      <c r="T16" s="567"/>
-      <c r="U16" s="290">
+      <c r="T16" s="583"/>
+      <c r="U16" s="284">
         <v>8</v>
       </c>
-      <c r="V16" s="291">
+      <c r="V16" s="285">
         <v>6.8</v>
       </c>
-      <c r="W16" s="291">
+      <c r="W16" s="285">
         <v>178</v>
       </c>
-      <c r="X16" s="293">
+      <c r="X16" s="287">
         <v>370</v>
       </c>
-      <c r="Y16" s="568" t="s">
+      <c r="Y16" s="584" t="s">
         <v>166</v>
       </c>
-      <c r="Z16" s="569"/>
-      <c r="AA16" s="294">
+      <c r="Z16" s="585"/>
+      <c r="AA16" s="288">
         <v>15</v>
       </c>
-      <c r="AB16" s="295">
+      <c r="AB16" s="289">
         <v>13.5</v>
       </c>
-      <c r="AC16" s="291">
+      <c r="AC16" s="285">
         <v>213</v>
       </c>
-      <c r="AD16" s="292">
+      <c r="AD16" s="286">
         <v>198</v>
       </c>
-      <c r="AE16" s="293">
+      <c r="AE16" s="287">
         <v>410</v>
       </c>
       <c r="AF16" s="24"/>
@@ -10095,39 +10079,39 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="26"/>
-      <c r="S17" s="566" t="s">
+      <c r="S17" s="582" t="s">
         <v>159</v>
       </c>
-      <c r="T17" s="567"/>
-      <c r="U17" s="290">
+      <c r="T17" s="583"/>
+      <c r="U17" s="284">
         <v>10</v>
       </c>
-      <c r="V17" s="291">
+      <c r="V17" s="285">
         <v>8.1</v>
       </c>
-      <c r="W17" s="291">
+      <c r="W17" s="285">
         <v>178</v>
       </c>
-      <c r="X17" s="293">
+      <c r="X17" s="287">
         <v>440</v>
       </c>
-      <c r="Y17" s="566" t="s">
+      <c r="Y17" s="582" t="s">
         <v>167</v>
       </c>
-      <c r="Z17" s="567"/>
-      <c r="AA17" s="290">
+      <c r="Z17" s="583"/>
+      <c r="AA17" s="284">
         <v>20</v>
       </c>
-      <c r="AB17" s="291">
+      <c r="AB17" s="285">
         <v>17.8</v>
       </c>
-      <c r="AC17" s="291">
+      <c r="AC17" s="285">
         <v>213</v>
       </c>
-      <c r="AD17" s="292">
+      <c r="AD17" s="286">
         <v>198</v>
       </c>
-      <c r="AE17" s="293">
+      <c r="AE17" s="287">
         <v>534</v>
       </c>
       <c r="AJ17" s="25"/>
@@ -10150,39 +10134,39 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="26"/>
-      <c r="S18" s="564" t="s">
+      <c r="S18" s="580" t="s">
         <v>160</v>
       </c>
-      <c r="T18" s="565"/>
-      <c r="U18" s="296">
+      <c r="T18" s="581"/>
+      <c r="U18" s="290">
         <v>12</v>
       </c>
-      <c r="V18" s="297">
+      <c r="V18" s="291">
         <v>10.199999999999999</v>
       </c>
-      <c r="W18" s="297">
+      <c r="W18" s="291">
         <v>178</v>
       </c>
-      <c r="X18" s="298">
+      <c r="X18" s="292">
         <v>540</v>
       </c>
-      <c r="Y18" s="564" t="s">
+      <c r="Y18" s="580" t="s">
         <v>168</v>
       </c>
-      <c r="Z18" s="565"/>
-      <c r="AA18" s="299">
+      <c r="Z18" s="581"/>
+      <c r="AA18" s="293">
         <v>25</v>
       </c>
-      <c r="AB18" s="300">
+      <c r="AB18" s="294">
         <v>23.5</v>
       </c>
-      <c r="AC18" s="300">
+      <c r="AC18" s="294">
         <v>213</v>
       </c>
-      <c r="AD18" s="301">
+      <c r="AD18" s="295">
         <v>198</v>
       </c>
-      <c r="AE18" s="302">
+      <c r="AE18" s="296">
         <v>705</v>
       </c>
       <c r="AJ18" s="25"/>
@@ -10235,10 +10219,10 @@
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="26"/>
-      <c r="S20" s="584" t="s">
+      <c r="S20" s="559" t="s">
         <v>220</v>
       </c>
-      <c r="T20" s="585"/>
+      <c r="T20" s="560"/>
       <c r="U20" s="23"/>
       <c r="V20" s="23"/>
       <c r="W20" s="23"/>
@@ -10530,26 +10514,26 @@
       <c r="O30" s="175"/>
       <c r="P30" s="175"/>
       <c r="Q30" s="139"/>
-      <c r="R30" s="595" t="s">
+      <c r="R30" s="564" t="s">
         <v>133</v>
       </c>
-      <c r="S30" s="596"/>
-      <c r="T30" s="596"/>
-      <c r="U30" s="596"/>
-      <c r="V30" s="596"/>
-      <c r="W30" s="597"/>
-      <c r="X30" s="549" t="s">
+      <c r="S30" s="565"/>
+      <c r="T30" s="565"/>
+      <c r="U30" s="565"/>
+      <c r="V30" s="565"/>
+      <c r="W30" s="566"/>
+      <c r="X30" s="600" t="s">
         <v>134</v>
       </c>
-      <c r="Y30" s="550"/>
-      <c r="Z30" s="550"/>
-      <c r="AA30" s="550"/>
-      <c r="AB30" s="550"/>
-      <c r="AC30" s="550"/>
-      <c r="AD30" s="559" t="s">
+      <c r="Y30" s="601"/>
+      <c r="Z30" s="601"/>
+      <c r="AA30" s="601"/>
+      <c r="AB30" s="601"/>
+      <c r="AC30" s="601"/>
+      <c r="AD30" s="610" t="s">
         <v>171</v>
       </c>
-      <c r="AE30" s="560"/>
+      <c r="AE30" s="611"/>
       <c r="AI30" s="25"/>
     </row>
     <row r="31" spans="1:36" ht="15.75" thickBot="1">
@@ -10638,10 +10622,10 @@
       <c r="AC31" s="165" t="s">
         <v>140</v>
       </c>
-      <c r="AD31" s="557" t="s">
+      <c r="AD31" s="608" t="s">
         <v>172</v>
       </c>
-      <c r="AE31" s="558"/>
+      <c r="AE31" s="609"/>
       <c r="AI31" s="27"/>
     </row>
     <row r="32" spans="1:36" ht="15.75" customHeight="1">
@@ -10736,11 +10720,11 @@
       <c r="AC32" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="AD32" s="555">
+      <c r="AD32" s="606">
         <f>G32*1.1</f>
         <v>3.5200000000000005</v>
       </c>
-      <c r="AE32" s="556"/>
+      <c r="AE32" s="607"/>
       <c r="AI32" s="152"/>
     </row>
     <row r="33" spans="1:35" ht="15.75" customHeight="1">
@@ -10774,8 +10758,8 @@
       <c r="AA33" s="151"/>
       <c r="AB33" s="151"/>
       <c r="AC33" s="166"/>
-      <c r="AD33" s="311"/>
-      <c r="AE33" s="312"/>
+      <c r="AD33" s="305"/>
+      <c r="AE33" s="306"/>
       <c r="AI33" s="152"/>
     </row>
     <row r="34" spans="1:35" ht="15.75" customHeight="1">
@@ -10869,11 +10853,11 @@
         <f t="shared" si="1"/>
         <v>1.1314285714285715</v>
       </c>
-      <c r="AD34" s="553">
+      <c r="AD34" s="604">
         <f>G34*1.1</f>
         <v>4.620000000000001</v>
       </c>
-      <c r="AE34" s="554"/>
+      <c r="AE34" s="605"/>
       <c r="AI34" s="152"/>
     </row>
     <row r="35" spans="1:35" ht="15.75" customHeight="1">
@@ -10972,11 +10956,11 @@
         <f t="shared" si="1"/>
         <v>2.5457142857142854</v>
       </c>
-      <c r="AD35" s="553">
+      <c r="AD35" s="604">
         <f>G35*1.1</f>
         <v>8.4700000000000006</v>
       </c>
-      <c r="AE35" s="554"/>
+      <c r="AE35" s="605"/>
       <c r="AI35" s="152"/>
     </row>
     <row r="36" spans="1:35" ht="15.75" customHeight="1" thickBot="1">
@@ -11075,11 +11059,11 @@
         <f t="shared" si="1"/>
         <v>2.5457142857142854</v>
       </c>
-      <c r="AD36" s="551">
+      <c r="AD36" s="602">
         <f>G36*1.1</f>
         <v>9.57</v>
       </c>
-      <c r="AE36" s="552"/>
+      <c r="AE36" s="603"/>
       <c r="AI36" s="152"/>
     </row>
     <row r="37" spans="1:35" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
@@ -11097,63 +11081,63 @@
     </row>
     <row r="38" spans="1:35" ht="15.75" customHeight="1" thickBot="1">
       <c r="A38" s="26"/>
-      <c r="B38" s="598" t="s">
+      <c r="B38" s="567" t="s">
         <v>248</v>
       </c>
-      <c r="C38" s="599"/>
-      <c r="D38" s="599"/>
-      <c r="E38" s="599"/>
-      <c r="F38" s="599"/>
-      <c r="G38" s="599"/>
-      <c r="H38" s="599"/>
-      <c r="I38" s="599"/>
-      <c r="J38" s="599"/>
-      <c r="K38" s="599"/>
-      <c r="L38" s="599"/>
-      <c r="M38" s="599"/>
-      <c r="N38" s="599"/>
-      <c r="O38" s="599"/>
-      <c r="P38" s="599"/>
-      <c r="Q38" s="599"/>
-      <c r="R38" s="599"/>
-      <c r="S38" s="599"/>
-      <c r="T38" s="599"/>
-      <c r="U38" s="599"/>
-      <c r="V38" s="599"/>
-      <c r="W38" s="599"/>
-      <c r="X38" s="599"/>
-      <c r="Y38" s="600"/>
+      <c r="C38" s="568"/>
+      <c r="D38" s="568"/>
+      <c r="E38" s="568"/>
+      <c r="F38" s="568"/>
+      <c r="G38" s="568"/>
+      <c r="H38" s="568"/>
+      <c r="I38" s="568"/>
+      <c r="J38" s="568"/>
+      <c r="K38" s="568"/>
+      <c r="L38" s="568"/>
+      <c r="M38" s="568"/>
+      <c r="N38" s="568"/>
+      <c r="O38" s="568"/>
+      <c r="P38" s="568"/>
+      <c r="Q38" s="568"/>
+      <c r="R38" s="568"/>
+      <c r="S38" s="568"/>
+      <c r="T38" s="568"/>
+      <c r="U38" s="568"/>
+      <c r="V38" s="568"/>
+      <c r="W38" s="568"/>
+      <c r="X38" s="568"/>
+      <c r="Y38" s="569"/>
     </row>
     <row r="39" spans="1:35" ht="18.75" thickBot="1">
       <c r="A39" s="26"/>
-      <c r="B39" s="592" t="s">
+      <c r="B39" s="561" t="s">
         <v>234</v>
       </c>
-      <c r="C39" s="593"/>
-      <c r="D39" s="593"/>
-      <c r="E39" s="593"/>
-      <c r="F39" s="593"/>
-      <c r="G39" s="594"/>
-      <c r="I39" s="601" t="s">
+      <c r="C39" s="562"/>
+      <c r="D39" s="562"/>
+      <c r="E39" s="562"/>
+      <c r="F39" s="562"/>
+      <c r="G39" s="563"/>
+      <c r="I39" s="570" t="s">
         <v>235</v>
       </c>
-      <c r="J39" s="602"/>
-      <c r="K39" s="602"/>
-      <c r="L39" s="602"/>
-      <c r="M39" s="602"/>
-      <c r="N39" s="602"/>
-      <c r="O39" s="602"/>
-      <c r="P39" s="602"/>
-      <c r="Q39" s="602"/>
-      <c r="R39" s="603"/>
-      <c r="T39" s="609" t="s">
+      <c r="J39" s="571"/>
+      <c r="K39" s="571"/>
+      <c r="L39" s="571"/>
+      <c r="M39" s="571"/>
+      <c r="N39" s="571"/>
+      <c r="O39" s="571"/>
+      <c r="P39" s="571"/>
+      <c r="Q39" s="571"/>
+      <c r="R39" s="572"/>
+      <c r="T39" s="549" t="s">
         <v>247</v>
       </c>
-      <c r="U39" s="610"/>
-      <c r="V39" s="610"/>
-      <c r="W39" s="610"/>
-      <c r="X39" s="610"/>
-      <c r="Y39" s="611"/>
+      <c r="U39" s="550"/>
+      <c r="V39" s="550"/>
+      <c r="W39" s="550"/>
+      <c r="X39" s="550"/>
+      <c r="Y39" s="551"/>
     </row>
     <row r="40" spans="1:35" ht="16.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A40" s="26"/>
@@ -11272,201 +11256,201 @@
     </row>
     <row r="45" spans="1:35" ht="15.75">
       <c r="A45" s="25"/>
-      <c r="B45" s="590" t="s">
+      <c r="B45" s="547" t="s">
         <v>221</v>
       </c>
-      <c r="C45" s="591"/>
-      <c r="D45" s="303" t="s">
+      <c r="C45" s="548"/>
+      <c r="D45" s="297" t="s">
         <v>245</v>
       </c>
-      <c r="E45" s="590" t="s">
+      <c r="E45" s="547" t="s">
         <v>222</v>
       </c>
-      <c r="F45" s="591"/>
-      <c r="G45" s="303" t="s">
+      <c r="F45" s="548"/>
+      <c r="G45" s="297" t="s">
         <v>245</v>
       </c>
-      <c r="H45" s="307"/>
-      <c r="I45" s="590" t="s">
+      <c r="H45" s="301"/>
+      <c r="I45" s="547" t="s">
         <v>221</v>
       </c>
-      <c r="J45" s="591"/>
-      <c r="K45" s="591"/>
-      <c r="L45" s="591"/>
-      <c r="M45" s="591" t="s">
+      <c r="J45" s="548"/>
+      <c r="K45" s="548"/>
+      <c r="L45" s="548"/>
+      <c r="M45" s="548" t="s">
         <v>246</v>
       </c>
-      <c r="N45" s="608"/>
-      <c r="O45" s="590" t="s">
+      <c r="N45" s="558"/>
+      <c r="O45" s="547" t="s">
         <v>222</v>
       </c>
-      <c r="P45" s="591"/>
-      <c r="Q45" s="591"/>
-      <c r="R45" s="308" t="s">
+      <c r="P45" s="548"/>
+      <c r="Q45" s="548"/>
+      <c r="R45" s="302" t="s">
         <v>239</v>
       </c>
-      <c r="T45" s="590" t="s">
+      <c r="T45" s="547" t="s">
         <v>221</v>
       </c>
-      <c r="U45" s="591"/>
-      <c r="V45" s="303">
+      <c r="U45" s="548"/>
+      <c r="V45" s="297">
         <v>1.6</v>
       </c>
-      <c r="W45" s="612" t="s">
+      <c r="W45" s="552" t="s">
         <v>222</v>
       </c>
-      <c r="X45" s="613"/>
-      <c r="Y45" s="304">
+      <c r="X45" s="553"/>
+      <c r="Y45" s="298">
         <v>1.8</v>
       </c>
     </row>
     <row r="46" spans="1:35" s="18" customFormat="1" ht="15.75">
       <c r="A46" s="25"/>
-      <c r="B46" s="588" t="s">
+      <c r="B46" s="545" t="s">
         <v>223</v>
       </c>
-      <c r="C46" s="589"/>
-      <c r="D46" s="309" t="s">
+      <c r="C46" s="546"/>
+      <c r="D46" s="303" t="s">
         <v>224</v>
       </c>
-      <c r="E46" s="588" t="s">
+      <c r="E46" s="545" t="s">
         <v>225</v>
       </c>
-      <c r="F46" s="589"/>
-      <c r="G46" s="309" t="s">
+      <c r="F46" s="546"/>
+      <c r="G46" s="303" t="s">
         <v>226</v>
       </c>
-      <c r="H46" s="307"/>
-      <c r="I46" s="588" t="s">
+      <c r="H46" s="301"/>
+      <c r="I46" s="545" t="s">
         <v>223</v>
       </c>
-      <c r="J46" s="589"/>
-      <c r="K46" s="589"/>
-      <c r="L46" s="589"/>
-      <c r="M46" s="606" t="s">
+      <c r="J46" s="546"/>
+      <c r="K46" s="546"/>
+      <c r="L46" s="546"/>
+      <c r="M46" s="575" t="s">
         <v>236</v>
       </c>
-      <c r="N46" s="607"/>
-      <c r="O46" s="588" t="s">
+      <c r="N46" s="576"/>
+      <c r="O46" s="545" t="s">
         <v>225</v>
       </c>
-      <c r="P46" s="589"/>
-      <c r="Q46" s="589"/>
-      <c r="R46" s="309" t="s">
+      <c r="P46" s="546"/>
+      <c r="Q46" s="546"/>
+      <c r="R46" s="303" t="s">
         <v>240</v>
       </c>
-      <c r="T46" s="612" t="s">
+      <c r="T46" s="552" t="s">
         <v>223</v>
       </c>
-      <c r="U46" s="613"/>
-      <c r="V46" s="304">
+      <c r="U46" s="553"/>
+      <c r="V46" s="298">
         <v>2.4</v>
       </c>
-      <c r="W46" s="612" t="s">
+      <c r="W46" s="552" t="s">
         <v>243</v>
       </c>
-      <c r="X46" s="613"/>
-      <c r="Y46" s="304">
+      <c r="X46" s="553"/>
+      <c r="Y46" s="298">
         <v>1.7</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="15.75">
       <c r="A47" s="25"/>
-      <c r="B47" s="588" t="s">
+      <c r="B47" s="545" t="s">
         <v>230</v>
       </c>
-      <c r="C47" s="589"/>
-      <c r="D47" s="309" t="s">
+      <c r="C47" s="546"/>
+      <c r="D47" s="303" t="s">
         <v>227</v>
       </c>
-      <c r="E47" s="588" t="s">
+      <c r="E47" s="545" t="s">
         <v>228</v>
       </c>
-      <c r="F47" s="589"/>
-      <c r="G47" s="309" t="s">
+      <c r="F47" s="546"/>
+      <c r="G47" s="303" t="s">
         <v>231</v>
       </c>
-      <c r="H47" s="307"/>
-      <c r="I47" s="588" t="s">
+      <c r="H47" s="301"/>
+      <c r="I47" s="545" t="s">
         <v>230</v>
       </c>
-      <c r="J47" s="589"/>
-      <c r="K47" s="589"/>
-      <c r="L47" s="589"/>
-      <c r="M47" s="606" t="s">
+      <c r="J47" s="546"/>
+      <c r="K47" s="546"/>
+      <c r="L47" s="546"/>
+      <c r="M47" s="575" t="s">
         <v>237</v>
       </c>
-      <c r="N47" s="607"/>
-      <c r="O47" s="588" t="s">
+      <c r="N47" s="576"/>
+      <c r="O47" s="545" t="s">
         <v>228</v>
       </c>
-      <c r="P47" s="589"/>
-      <c r="Q47" s="589"/>
-      <c r="R47" s="309" t="s">
+      <c r="P47" s="546"/>
+      <c r="Q47" s="546"/>
+      <c r="R47" s="303" t="s">
         <v>239</v>
       </c>
-      <c r="T47" s="612" t="s">
+      <c r="T47" s="552" t="s">
         <v>230</v>
       </c>
-      <c r="U47" s="613"/>
-      <c r="V47" s="304">
+      <c r="U47" s="553"/>
+      <c r="V47" s="298">
         <v>0.85</v>
       </c>
-      <c r="W47" s="616" t="s">
+      <c r="W47" s="556" t="s">
         <v>241</v>
       </c>
-      <c r="X47" s="617"/>
-      <c r="Y47" s="306">
+      <c r="X47" s="557"/>
+      <c r="Y47" s="300">
         <v>0.6</v>
       </c>
     </row>
     <row r="48" spans="1:35" ht="16.5" thickBot="1">
       <c r="A48" s="25"/>
-      <c r="B48" s="586" t="s">
+      <c r="B48" s="543" t="s">
         <v>229</v>
       </c>
-      <c r="C48" s="587"/>
-      <c r="D48" s="310" t="s">
+      <c r="C48" s="544"/>
+      <c r="D48" s="304" t="s">
         <v>233</v>
       </c>
-      <c r="E48" s="586" t="s">
+      <c r="E48" s="543" t="s">
         <v>232</v>
       </c>
-      <c r="F48" s="587"/>
-      <c r="G48" s="310" t="s">
+      <c r="F48" s="544"/>
+      <c r="G48" s="304" t="s">
         <v>224</v>
       </c>
-      <c r="H48" s="307"/>
-      <c r="I48" s="586" t="s">
+      <c r="H48" s="301"/>
+      <c r="I48" s="543" t="s">
         <v>229</v>
       </c>
-      <c r="J48" s="587"/>
-      <c r="K48" s="587"/>
-      <c r="L48" s="587"/>
-      <c r="M48" s="604" t="s">
+      <c r="J48" s="544"/>
+      <c r="K48" s="544"/>
+      <c r="L48" s="544"/>
+      <c r="M48" s="573" t="s">
         <v>238</v>
       </c>
-      <c r="N48" s="605"/>
-      <c r="O48" s="586" t="s">
+      <c r="N48" s="574"/>
+      <c r="O48" s="543" t="s">
         <v>232</v>
       </c>
-      <c r="P48" s="587"/>
-      <c r="Q48" s="587"/>
-      <c r="R48" s="310" t="s">
+      <c r="P48" s="544"/>
+      <c r="Q48" s="544"/>
+      <c r="R48" s="304" t="s">
         <v>236</v>
       </c>
-      <c r="T48" s="614" t="s">
+      <c r="T48" s="554" t="s">
         <v>242</v>
       </c>
-      <c r="U48" s="615"/>
-      <c r="V48" s="305">
+      <c r="U48" s="555"/>
+      <c r="V48" s="299">
         <v>2.1</v>
       </c>
-      <c r="W48" s="614" t="s">
+      <c r="W48" s="554" t="s">
         <v>244</v>
       </c>
-      <c r="X48" s="615"/>
-      <c r="Y48" s="305">
+      <c r="X48" s="555"/>
+      <c r="Y48" s="299">
         <v>1.9</v>
       </c>
     </row>
@@ -13235,24 +13219,29 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="iC8bB4xWhWPkvaYjyTkHk92rfjcNPuPA2FRlCCkqnRWQh9Qcvf8UI4kNyIgjwaAPx9XzFtuvnZO1ihCDwwNgJw==" saltValue="HsGnMq1Vg2uMqTm3EaUXig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="57">
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="O47:Q47"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="O45:Q45"/>
-    <mergeCell ref="T39:Y39"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="X30:AC30"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="S11:AE11"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Y14:Z14"/>
     <mergeCell ref="S20:T20"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B47:C47"/>
@@ -13269,29 +13258,24 @@
     <mergeCell ref="M48:N48"/>
     <mergeCell ref="M47:N47"/>
     <mergeCell ref="M46:N46"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="S11:AE11"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="X30:AC30"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="O45:Q45"/>
+    <mergeCell ref="T39:Y39"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="T47:U47"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13327,17 +13311,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="644" t="s">
+      <c r="A1" s="622" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="645"/>
-      <c r="C1" s="645"/>
-      <c r="D1" s="645"/>
-      <c r="E1" s="645"/>
-      <c r="F1" s="645"/>
-      <c r="G1" s="645"/>
-      <c r="H1" s="645"/>
-      <c r="I1" s="646"/>
+      <c r="B1" s="623"/>
+      <c r="C1" s="623"/>
+      <c r="D1" s="623"/>
+      <c r="E1" s="623"/>
+      <c r="F1" s="623"/>
+      <c r="G1" s="623"/>
+      <c r="H1" s="623"/>
+      <c r="I1" s="624"/>
       <c r="J1" s="184"/>
       <c r="K1" s="185"/>
       <c r="L1" s="185"/>
@@ -13363,11 +13347,11 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="187"/>
-      <c r="B3" s="640" t="s">
+      <c r="B3" s="635" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="641"/>
-      <c r="D3" s="642"/>
+      <c r="C3" s="636"/>
+      <c r="D3" s="637"/>
       <c r="E3" s="189"/>
       <c r="F3" s="189"/>
       <c r="G3" s="189"/>
@@ -13380,11 +13364,11 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="187"/>
-      <c r="B4" s="624" t="s">
+      <c r="B4" s="638" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="625"/>
-      <c r="D4" s="626"/>
+      <c r="C4" s="639"/>
+      <c r="D4" s="640"/>
       <c r="E4" s="189"/>
       <c r="F4" s="189"/>
       <c r="G4" s="189"/>
@@ -13397,11 +13381,11 @@
     </row>
     <row r="5" spans="1:16" ht="16.5" thickBot="1">
       <c r="A5" s="187"/>
-      <c r="B5" s="627" t="s">
+      <c r="B5" s="641" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="628"/>
-      <c r="D5" s="629"/>
+      <c r="C5" s="642"/>
+      <c r="D5" s="643"/>
       <c r="E5" s="189"/>
       <c r="F5" s="189"/>
       <c r="G5" s="189"/>
@@ -13493,15 +13477,15 @@
     </row>
     <row r="11" spans="1:16" ht="16.5" thickBot="1">
       <c r="A11" s="187"/>
-      <c r="B11" s="647" t="s">
+      <c r="B11" s="630" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="648"/>
-      <c r="D11" s="648"/>
-      <c r="E11" s="648"/>
-      <c r="F11" s="648"/>
-      <c r="G11" s="648"/>
-      <c r="H11" s="649"/>
+      <c r="C11" s="631"/>
+      <c r="D11" s="631"/>
+      <c r="E11" s="631"/>
+      <c r="F11" s="631"/>
+      <c r="G11" s="631"/>
+      <c r="H11" s="632"/>
       <c r="I11" s="188"/>
       <c r="J11" s="200"/>
       <c r="K11" s="190"/>
@@ -13525,17 +13509,17 @@
     </row>
     <row r="13" spans="1:16" ht="16.5" thickBot="1">
       <c r="A13" s="187"/>
-      <c r="B13" s="618" t="s">
+      <c r="B13" s="627" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="619"/>
-      <c r="D13" s="619"/>
-      <c r="E13" s="619"/>
-      <c r="F13" s="643"/>
-      <c r="G13" s="620" t="s">
+      <c r="C13" s="628"/>
+      <c r="D13" s="628"/>
+      <c r="E13" s="628"/>
+      <c r="F13" s="629"/>
+      <c r="G13" s="633" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="621"/>
+      <c r="H13" s="634"/>
       <c r="I13" s="188"/>
     </row>
     <row r="14" spans="1:16">
@@ -13543,16 +13527,16 @@
       <c r="B14" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="313">
+      <c r="C14" s="307">
         <v>105</v>
       </c>
       <c r="D14" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="622" t="s">
+      <c r="E14" s="625" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="623"/>
+      <c r="F14" s="626"/>
       <c r="G14" s="203">
         <v>160</v>
       </c>
@@ -13580,10 +13564,10 @@
       <c r="D15" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="630" t="s">
+      <c r="E15" s="612" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="631"/>
+      <c r="F15" s="613"/>
       <c r="G15" s="209">
         <f>G14*$C$7</f>
         <v>16000000</v>
@@ -13614,10 +13598,10 @@
       <c r="D16" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="632" t="s">
+      <c r="E16" s="614" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="633"/>
+      <c r="F16" s="615"/>
       <c r="G16" s="214">
         <f>G15*$C$9</f>
         <v>16000000</v>
@@ -13636,13 +13620,13 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="187"/>
-      <c r="B17" s="634" t="s">
+      <c r="B17" s="616" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="635"/>
-      <c r="D17" s="635"/>
-      <c r="E17" s="635"/>
-      <c r="F17" s="635"/>
+      <c r="C17" s="617"/>
+      <c r="D17" s="617"/>
+      <c r="E17" s="617"/>
+      <c r="F17" s="617"/>
       <c r="G17" s="246">
         <f>G16*C16</f>
         <v>138544.23604139997</v>
@@ -13661,11 +13645,11 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="187"/>
-      <c r="B18" s="636"/>
-      <c r="C18" s="637"/>
-      <c r="D18" s="637"/>
-      <c r="E18" s="637"/>
-      <c r="F18" s="637"/>
+      <c r="B18" s="618"/>
+      <c r="C18" s="619"/>
+      <c r="D18" s="619"/>
+      <c r="E18" s="619"/>
+      <c r="F18" s="619"/>
       <c r="G18" s="247">
         <f>G17/1000</f>
         <v>138.54423604139998</v>
@@ -13684,11 +13668,11 @@
     </row>
     <row r="19" spans="1:16" ht="16.5" thickBot="1">
       <c r="A19" s="187"/>
-      <c r="B19" s="638"/>
-      <c r="C19" s="639"/>
-      <c r="D19" s="639"/>
-      <c r="E19" s="639"/>
-      <c r="F19" s="639"/>
+      <c r="B19" s="620"/>
+      <c r="C19" s="621"/>
+      <c r="D19" s="621"/>
+      <c r="E19" s="621"/>
+      <c r="F19" s="621"/>
       <c r="G19" s="248">
         <f>G18/10</f>
         <v>13.854423604139999</v>
@@ -13725,17 +13709,17 @@
     </row>
     <row r="21" spans="1:16" ht="16.5" thickBot="1">
       <c r="A21" s="187"/>
-      <c r="B21" s="618" t="s">
+      <c r="B21" s="627" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="619"/>
-      <c r="D21" s="619"/>
-      <c r="E21" s="619"/>
-      <c r="F21" s="643"/>
-      <c r="G21" s="620" t="s">
+      <c r="C21" s="628"/>
+      <c r="D21" s="628"/>
+      <c r="E21" s="628"/>
+      <c r="F21" s="629"/>
+      <c r="G21" s="633" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="621"/>
+      <c r="H21" s="634"/>
       <c r="I21" s="188"/>
     </row>
     <row r="22" spans="1:16">
@@ -13743,16 +13727,16 @@
       <c r="B22" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="313">
+      <c r="C22" s="307">
         <v>90</v>
       </c>
       <c r="D22" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="622" t="s">
+      <c r="E22" s="625" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="623"/>
+      <c r="F22" s="626"/>
       <c r="G22" s="203">
         <v>160</v>
       </c>
@@ -13780,10 +13764,10 @@
       <c r="D23" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="630" t="s">
+      <c r="E23" s="612" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="631"/>
+      <c r="F23" s="613"/>
       <c r="G23" s="209">
         <f>G22*$C$7</f>
         <v>16000000</v>
@@ -13812,10 +13796,10 @@
       <c r="D24" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="632" t="s">
+      <c r="E24" s="614" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="633"/>
+      <c r="F24" s="615"/>
       <c r="G24" s="214">
         <f>G23*$C$9</f>
         <v>16000000</v>
@@ -13834,13 +13818,13 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="187"/>
-      <c r="B25" s="634" t="s">
+      <c r="B25" s="616" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="635"/>
-      <c r="D25" s="635"/>
-      <c r="E25" s="635"/>
-      <c r="F25" s="635"/>
+      <c r="C25" s="617"/>
+      <c r="D25" s="617"/>
+      <c r="E25" s="617"/>
+      <c r="F25" s="617"/>
       <c r="G25" s="246">
         <f>G24*C24</f>
         <v>101787.60198960001</v>
@@ -13853,11 +13837,11 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="187"/>
-      <c r="B26" s="636"/>
-      <c r="C26" s="637"/>
-      <c r="D26" s="637"/>
-      <c r="E26" s="637"/>
-      <c r="F26" s="637"/>
+      <c r="B26" s="618"/>
+      <c r="C26" s="619"/>
+      <c r="D26" s="619"/>
+      <c r="E26" s="619"/>
+      <c r="F26" s="619"/>
       <c r="G26" s="247">
         <f>G25/1000</f>
         <v>101.78760198960001</v>
@@ -13870,11 +13854,11 @@
     </row>
     <row r="27" spans="1:16" ht="16.5" thickBot="1">
       <c r="A27" s="187"/>
-      <c r="B27" s="638"/>
-      <c r="C27" s="639"/>
-      <c r="D27" s="639"/>
-      <c r="E27" s="639"/>
-      <c r="F27" s="639"/>
+      <c r="B27" s="620"/>
+      <c r="C27" s="621"/>
+      <c r="D27" s="621"/>
+      <c r="E27" s="621"/>
+      <c r="F27" s="621"/>
       <c r="G27" s="248">
         <f>G26/10</f>
         <v>10.178760198960001</v>
@@ -13898,17 +13882,17 @@
     </row>
     <row r="29" spans="1:16" ht="16.5" thickBot="1">
       <c r="A29" s="187"/>
-      <c r="B29" s="618" t="s">
+      <c r="B29" s="627" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="619"/>
-      <c r="D29" s="619"/>
-      <c r="E29" s="619"/>
-      <c r="F29" s="643"/>
-      <c r="G29" s="620" t="s">
+      <c r="C29" s="628"/>
+      <c r="D29" s="628"/>
+      <c r="E29" s="628"/>
+      <c r="F29" s="629"/>
+      <c r="G29" s="633" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="621"/>
+      <c r="H29" s="634"/>
       <c r="I29" s="188"/>
       <c r="J29" s="228" t="e">
         <f>(J5/C31)/M14</f>
@@ -13920,16 +13904,16 @@
       <c r="B30" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="313">
+      <c r="C30" s="307">
         <v>75</v>
       </c>
       <c r="D30" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="622" t="s">
+      <c r="E30" s="625" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="623"/>
+      <c r="F30" s="626"/>
       <c r="G30" s="203">
         <v>160</v>
       </c>
@@ -13950,10 +13934,10 @@
       <c r="D31" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="630" t="s">
+      <c r="E31" s="612" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="631"/>
+      <c r="F31" s="613"/>
       <c r="G31" s="209">
         <f>G30*$C$7</f>
         <v>16000000</v>
@@ -13979,10 +13963,10 @@
       <c r="D32" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="632" t="s">
+      <c r="E32" s="614" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="633"/>
+      <c r="F32" s="615"/>
       <c r="G32" s="214">
         <f>G31*$C$9</f>
         <v>16000000</v>
@@ -13994,13 +13978,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="187"/>
-      <c r="B33" s="634" t="s">
+      <c r="B33" s="616" t="s">
         <v>208</v>
       </c>
-      <c r="C33" s="635"/>
-      <c r="D33" s="635"/>
-      <c r="E33" s="635"/>
-      <c r="F33" s="635"/>
+      <c r="C33" s="617"/>
+      <c r="D33" s="617"/>
+      <c r="E33" s="617"/>
+      <c r="F33" s="617"/>
       <c r="G33" s="246">
         <f>G32*C32</f>
         <v>70685.83471499999</v>
@@ -14012,11 +13996,11 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="187"/>
-      <c r="B34" s="636"/>
-      <c r="C34" s="637"/>
-      <c r="D34" s="637"/>
-      <c r="E34" s="637"/>
-      <c r="F34" s="637"/>
+      <c r="B34" s="618"/>
+      <c r="C34" s="619"/>
+      <c r="D34" s="619"/>
+      <c r="E34" s="619"/>
+      <c r="F34" s="619"/>
       <c r="G34" s="247">
         <f>G33/1000</f>
         <v>70.685834714999984</v>
@@ -14028,11 +14012,11 @@
     </row>
     <row r="35" spans="1:10" ht="16.5" thickBot="1">
       <c r="A35" s="187"/>
-      <c r="B35" s="638"/>
-      <c r="C35" s="639"/>
-      <c r="D35" s="639"/>
-      <c r="E35" s="639"/>
-      <c r="F35" s="639"/>
+      <c r="B35" s="620"/>
+      <c r="C35" s="621"/>
+      <c r="D35" s="621"/>
+      <c r="E35" s="621"/>
+      <c r="F35" s="621"/>
       <c r="G35" s="248">
         <f>G34/10</f>
         <v>7.0685834714999984</v>
@@ -14055,17 +14039,17 @@
     </row>
     <row r="37" spans="1:10" ht="16.5" thickBot="1">
       <c r="A37" s="187"/>
-      <c r="B37" s="618" t="s">
+      <c r="B37" s="627" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="619"/>
-      <c r="D37" s="619"/>
-      <c r="E37" s="619"/>
-      <c r="F37" s="619"/>
-      <c r="G37" s="620" t="s">
+      <c r="C37" s="628"/>
+      <c r="D37" s="628"/>
+      <c r="E37" s="628"/>
+      <c r="F37" s="628"/>
+      <c r="G37" s="633" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="621"/>
+      <c r="H37" s="634"/>
       <c r="I37" s="188"/>
     </row>
     <row r="38" spans="1:10">
@@ -14073,16 +14057,16 @@
       <c r="B38" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="313">
+      <c r="C38" s="307">
         <v>60</v>
       </c>
       <c r="D38" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="622" t="s">
+      <c r="E38" s="625" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="623"/>
+      <c r="F38" s="626"/>
       <c r="G38" s="203">
         <v>160</v>
       </c>
@@ -14107,10 +14091,10 @@
       <c r="D39" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="630" t="s">
+      <c r="E39" s="612" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="631"/>
+      <c r="F39" s="613"/>
       <c r="G39" s="209">
         <f>G38*$C$7</f>
         <v>16000000</v>
@@ -14132,10 +14116,10 @@
       <c r="D40" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="632" t="s">
+      <c r="E40" s="614" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="633"/>
+      <c r="F40" s="615"/>
       <c r="G40" s="214">
         <f>G39*$C$9</f>
         <v>16000000</v>
@@ -14147,13 +14131,13 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="187"/>
-      <c r="B41" s="634" t="s">
+      <c r="B41" s="616" t="s">
         <v>209</v>
       </c>
-      <c r="C41" s="635"/>
-      <c r="D41" s="635"/>
-      <c r="E41" s="635"/>
-      <c r="F41" s="635"/>
+      <c r="C41" s="617"/>
+      <c r="D41" s="617"/>
+      <c r="E41" s="617"/>
+      <c r="F41" s="617"/>
       <c r="G41" s="246">
         <f>G40*C40</f>
         <v>45238.934217599999</v>
@@ -14165,11 +14149,11 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="187"/>
-      <c r="B42" s="636"/>
-      <c r="C42" s="637"/>
-      <c r="D42" s="637"/>
-      <c r="E42" s="637"/>
-      <c r="F42" s="637"/>
+      <c r="B42" s="618"/>
+      <c r="C42" s="619"/>
+      <c r="D42" s="619"/>
+      <c r="E42" s="619"/>
+      <c r="F42" s="619"/>
       <c r="G42" s="247">
         <f>G41/1000</f>
         <v>45.238934217599997</v>
@@ -14181,11 +14165,11 @@
     </row>
     <row r="43" spans="1:10" ht="16.5" thickBot="1">
       <c r="A43" s="187"/>
-      <c r="B43" s="638"/>
-      <c r="C43" s="639"/>
-      <c r="D43" s="639"/>
-      <c r="E43" s="639"/>
-      <c r="F43" s="639"/>
+      <c r="B43" s="620"/>
+      <c r="C43" s="621"/>
+      <c r="D43" s="621"/>
+      <c r="E43" s="621"/>
+      <c r="F43" s="621"/>
       <c r="G43" s="248">
         <f>G42/10</f>
         <v>4.5238934217599995</v>
@@ -14208,17 +14192,17 @@
     </row>
     <row r="45" spans="1:10" ht="16.5" thickBot="1">
       <c r="A45" s="187"/>
-      <c r="B45" s="618" t="s">
+      <c r="B45" s="627" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="619"/>
-      <c r="D45" s="619"/>
-      <c r="E45" s="619"/>
-      <c r="F45" s="619"/>
-      <c r="G45" s="620" t="s">
+      <c r="C45" s="628"/>
+      <c r="D45" s="628"/>
+      <c r="E45" s="628"/>
+      <c r="F45" s="628"/>
+      <c r="G45" s="633" t="s">
         <v>39</v>
       </c>
-      <c r="H45" s="621"/>
+      <c r="H45" s="634"/>
       <c r="I45" s="188"/>
     </row>
     <row r="46" spans="1:10">
@@ -14226,16 +14210,16 @@
       <c r="B46" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="313">
+      <c r="C46" s="307">
         <v>45</v>
       </c>
       <c r="D46" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="622" t="s">
+      <c r="E46" s="625" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="623"/>
+      <c r="F46" s="626"/>
       <c r="G46" s="203">
         <v>160</v>
       </c>
@@ -14256,10 +14240,10 @@
       <c r="D47" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="630" t="s">
+      <c r="E47" s="612" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="631"/>
+      <c r="F47" s="613"/>
       <c r="G47" s="209">
         <f>G46*$C$7</f>
         <v>16000000</v>
@@ -14281,10 +14265,10 @@
       <c r="D48" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="632" t="s">
+      <c r="E48" s="614" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="633"/>
+      <c r="F48" s="615"/>
       <c r="G48" s="214">
         <f>G47*$C$9</f>
         <v>16000000</v>
@@ -14296,13 +14280,13 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="187"/>
-      <c r="B49" s="634" t="s">
+      <c r="B49" s="616" t="s">
         <v>210</v>
       </c>
-      <c r="C49" s="635"/>
-      <c r="D49" s="635"/>
-      <c r="E49" s="635"/>
-      <c r="F49" s="635"/>
+      <c r="C49" s="617"/>
+      <c r="D49" s="617"/>
+      <c r="E49" s="617"/>
+      <c r="F49" s="617"/>
       <c r="G49" s="246">
         <f>G48*C48</f>
         <v>25446.900497400002</v>
@@ -14314,11 +14298,11 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="187"/>
-      <c r="B50" s="636"/>
-      <c r="C50" s="637"/>
-      <c r="D50" s="637"/>
-      <c r="E50" s="637"/>
-      <c r="F50" s="637"/>
+      <c r="B50" s="618"/>
+      <c r="C50" s="619"/>
+      <c r="D50" s="619"/>
+      <c r="E50" s="619"/>
+      <c r="F50" s="619"/>
       <c r="G50" s="247">
         <f>G49/1000</f>
         <v>25.446900497400001</v>
@@ -14330,11 +14314,11 @@
     </row>
     <row r="51" spans="1:9" ht="16.5" thickBot="1">
       <c r="A51" s="187"/>
-      <c r="B51" s="638"/>
-      <c r="C51" s="639"/>
-      <c r="D51" s="639"/>
-      <c r="E51" s="639"/>
-      <c r="F51" s="639"/>
+      <c r="B51" s="620"/>
+      <c r="C51" s="621"/>
+      <c r="D51" s="621"/>
+      <c r="E51" s="621"/>
+      <c r="F51" s="621"/>
       <c r="G51" s="248">
         <f>G50/10</f>
         <v>2.5446900497400002</v>
@@ -14357,17 +14341,17 @@
     </row>
     <row r="53" spans="1:9" ht="16.5" thickBot="1">
       <c r="A53" s="187"/>
-      <c r="B53" s="618" t="s">
+      <c r="B53" s="627" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="619"/>
-      <c r="D53" s="619"/>
-      <c r="E53" s="619"/>
-      <c r="F53" s="619"/>
-      <c r="G53" s="620" t="s">
+      <c r="C53" s="628"/>
+      <c r="D53" s="628"/>
+      <c r="E53" s="628"/>
+      <c r="F53" s="628"/>
+      <c r="G53" s="633" t="s">
         <v>40</v>
       </c>
-      <c r="H53" s="621"/>
+      <c r="H53" s="634"/>
       <c r="I53" s="188"/>
     </row>
     <row r="54" spans="1:9">
@@ -14381,10 +14365,10 @@
       <c r="D54" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="622" t="s">
+      <c r="E54" s="625" t="s">
         <v>70</v>
       </c>
-      <c r="F54" s="623"/>
+      <c r="F54" s="626"/>
       <c r="G54" s="203">
         <v>160</v>
       </c>
@@ -14398,17 +14382,17 @@
       <c r="B55" s="206" t="s">
         <v>186</v>
       </c>
-      <c r="C55" s="314">
+      <c r="C55" s="308">
         <f>(C54/1000)/2</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D55" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="630" t="s">
+      <c r="E55" s="612" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="631"/>
+      <c r="F55" s="613"/>
       <c r="G55" s="209">
         <f>G54*$C$7</f>
         <v>16000000</v>
@@ -14430,10 +14414,10 @@
       <c r="D56" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="632" t="s">
+      <c r="E56" s="614" t="s">
         <v>45</v>
       </c>
-      <c r="F56" s="633"/>
+      <c r="F56" s="615"/>
       <c r="G56" s="214">
         <f>G55*$C$9</f>
         <v>16000000</v>
@@ -14445,13 +14429,13 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="187"/>
-      <c r="B57" s="634" t="s">
+      <c r="B57" s="616" t="s">
         <v>211</v>
       </c>
-      <c r="C57" s="635"/>
-      <c r="D57" s="635"/>
-      <c r="E57" s="635"/>
-      <c r="F57" s="635"/>
+      <c r="C57" s="617"/>
+      <c r="D57" s="617"/>
+      <c r="E57" s="617"/>
+      <c r="F57" s="617"/>
       <c r="G57" s="246">
         <f>G56*C56</f>
         <v>11309.7335544</v>
@@ -14463,11 +14447,11 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="187"/>
-      <c r="B58" s="636"/>
-      <c r="C58" s="637"/>
-      <c r="D58" s="637"/>
-      <c r="E58" s="637"/>
-      <c r="F58" s="637"/>
+      <c r="B58" s="618"/>
+      <c r="C58" s="619"/>
+      <c r="D58" s="619"/>
+      <c r="E58" s="619"/>
+      <c r="F58" s="619"/>
       <c r="G58" s="247">
         <f>G57/1000</f>
         <v>11.309733554399999</v>
@@ -14479,11 +14463,11 @@
     </row>
     <row r="59" spans="1:9" ht="16.5" thickBot="1">
       <c r="A59" s="187"/>
-      <c r="B59" s="638"/>
-      <c r="C59" s="639"/>
-      <c r="D59" s="639"/>
-      <c r="E59" s="639"/>
-      <c r="F59" s="639"/>
+      <c r="B59" s="620"/>
+      <c r="C59" s="621"/>
+      <c r="D59" s="621"/>
+      <c r="E59" s="621"/>
+      <c r="F59" s="621"/>
       <c r="G59" s="248">
         <f>G58/10</f>
         <v>1.1309733554399999</v>
@@ -14508,6 +14492,31 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="UetlfcXvGwgkZBurYxrXKo4tbXLjQIGERCzUd7vv9yWV+oDO2PkDXvS0dof+mOwGlFEs6DXMuGi+Q5XT/Ljxig==" saltValue="Pg65u53yyz+RFRHh6C9KaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="41">
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="B49:F51"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B41:F43"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="B33:F35"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B17:F19"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="B57:F59"/>
@@ -14524,31 +14533,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B33:F35"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B17:F19"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="B49:F51"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B41:F43"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -14578,13 +14562,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="274"/>
+      <c r="A2" s="268"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="274"/>
+      <c r="A3" s="268"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="274"/>
+      <c r="A4" s="268"/>
       <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:3">
